--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.833467659363691</v>
+        <v>3.833467659363748</v>
       </c>
       <c r="C2">
-        <v>1.087867365620497</v>
+        <v>1.087867365620582</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.490644891594528</v>
+        <v>1.490644891594499</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -453,19 +453,19 @@
         <v>3.284248244260482</v>
       </c>
       <c r="C3">
-        <v>0.9342086293451075</v>
+        <v>0.9342086293453633</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.26453289992773</v>
+        <v>1.264532899927772</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.203598147794935</v>
+        <v>2.203598147794921</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.955138708507832</v>
+        <v>2.955138708507718</v>
       </c>
       <c r="C4">
-        <v>0.8421567669115291</v>
+        <v>0.8421567669119838</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.130949543400035</v>
+        <v>1.130949543400092</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.006261351475317</v>
+        <v>2.006261351475331</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.82270275075382</v>
+        <v>2.822702750753592</v>
       </c>
       <c r="C5">
-        <v>0.805111236105887</v>
+        <v>0.8051112361059722</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077595472500988</v>
+        <v>1.077595472501073</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.927967664498965</v>
+        <v>1.927967664498979</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.800803632936947</v>
+        <v>2.800803632936777</v>
       </c>
       <c r="C6">
-        <v>0.7989850808847905</v>
+        <v>0.7989850808850179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068795157610097</v>
+        <v>1.068795157610083</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.915085225815105</v>
+        <v>1.915085225815076</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.95334627461574</v>
+        <v>2.95334627461591</v>
       </c>
       <c r="C7">
-        <v>0.8416554045474811</v>
+        <v>0.8416554045469695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.130225897996354</v>
+        <v>1.13022589799634</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.005197320734268</v>
+        <v>2.005197320734283</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642178523042276</v>
+        <v>3.642178523041878</v>
       </c>
       <c r="C8">
-        <v>1.034337365081512</v>
+        <v>1.034337365081228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.411436176245942</v>
+        <v>1.411436176245999</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.422472024899108</v>
+        <v>2.422472024899079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.076985131110689</v>
+        <v>5.076985131110519</v>
       </c>
       <c r="C9">
-        <v>1.436469085153078</v>
+        <v>1.436469085153362</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.017761257242071</v>
+        <v>2.017761257242057</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.216695052337741</v>
+        <v>6.216695052337798</v>
       </c>
       <c r="C10">
-        <v>1.757454390971418</v>
+        <v>1.757454390971077</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.520494390560614</v>
+        <v>2.520494390560515</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>4.10984390497191</v>
+        <v>4.109843904971825</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.764246734418123</v>
+        <v>6.764246734417839</v>
       </c>
       <c r="C11">
-        <v>1.91235168868667</v>
+        <v>1.912351688686726</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.769227747416238</v>
+        <v>2.76922774741621</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.976966499064929</v>
+        <v>6.976966499065213</v>
       </c>
       <c r="C12">
-        <v>1.97266721304743</v>
+        <v>1.972667213047089</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>2.867195493206765</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>4.642163468401748</v>
+        <v>4.642163468401804</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>6.930891702022222</v>
       </c>
       <c r="C13">
-        <v>1.959596020499589</v>
+        <v>1.959596020499362</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.84591084035506</v>
+        <v>2.845910840355089</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.609489830534102</v>
+        <v>4.609489830534017</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.781631541949309</v>
+        <v>6.781631541949253</v>
       </c>
       <c r="C14">
-        <v>1.917278018771299</v>
+        <v>1.917278018771469</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.777205699338111</v>
+        <v>2.77720569933814</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.504006511517105</v>
+        <v>4.504006511517048</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.690946472241819</v>
+        <v>6.690946472241592</v>
       </c>
       <c r="C15">
-        <v>1.891586434377359</v>
+        <v>1.891586434377587</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.440190961370575</v>
+        <v>4.440190961370547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.181590914485525</v>
+        <v>6.181590914485469</v>
       </c>
       <c r="C16">
-        <v>1.747540353066711</v>
+        <v>1.747540353067279</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.504712585342531</v>
+        <v>2.504712585342489</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>4.085619620845193</v>
+        <v>4.085619620845222</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.877316022433376</v>
+        <v>5.87731602243332</v>
       </c>
       <c r="C17">
-        <v>1.661685834242348</v>
+        <v>1.661685834241894</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.368728775343811</v>
+        <v>2.368728775343797</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.876983908325485</v>
+        <v>3.876983908325428</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704956007538613</v>
+        <v>5.704956007538385</v>
       </c>
       <c r="C18">
         <v>1.613112117569074</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.292333503433412</v>
+        <v>2.292333503433383</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.759872067536406</v>
+        <v>3.759872067536378</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.647022094282363</v>
       </c>
       <c r="C19">
-        <v>1.596794668852738</v>
+        <v>1.596794668852567</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.266756860178916</v>
+        <v>2.26675686017893</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
         <v>3.720684244183701</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.909424678400342</v>
+        <v>5.909424678400399</v>
       </c>
       <c r="C20">
-        <v>1.6707391978278</v>
+        <v>1.670739197828084</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.383010614354404</v>
+        <v>2.38301061435439</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.898886613543993</v>
+        <v>3.898886613543965</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.825315784422855</v>
+        <v>6.825315784422799</v>
       </c>
       <c r="C21">
-        <v>1.929659176600865</v>
+        <v>1.929659176600808</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.797274905465088</v>
+        <v>2.797274905465017</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.534820891784278</v>
+        <v>4.534820891784221</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.456062676667784</v>
+        <v>7.456062676667671</v>
       </c>
       <c r="C22">
-        <v>2.108822329671909</v>
+        <v>2.108822329672023</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.090699577193135</v>
+        <v>3.090699577193107</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.985024433126512</v>
+        <v>4.985024433126426</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.115985818741251</v>
+        <v>7.115985818741422</v>
       </c>
       <c r="C23">
-        <v>2.012130103285585</v>
+        <v>2.012130103285699</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.931637090429803</v>
+        <v>2.931637090429774</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.741067661110321</v>
+        <v>4.74106766111035</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.894900429682025</v>
+        <v>5.894900429682082</v>
       </c>
       <c r="C24">
-        <v>1.666643753641154</v>
+        <v>1.666643753640926</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.376548302656872</v>
+        <v>2.3765483026569</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.888975655947092</v>
+        <v>3.888975655947121</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.676736223092973</v>
+        <v>4.67673622309303</v>
       </c>
       <c r="C25">
-        <v>1.324118488075612</v>
+        <v>1.324118488075555</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.077896036563089</v>
+        <v>3.077896036563061</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.833467659363748</v>
+        <v>3.833467659363691</v>
       </c>
       <c r="C2">
-        <v>1.087867365620582</v>
+        <v>1.087867365620497</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.490644891594499</v>
+        <v>1.490644891594528</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -453,19 +453,19 @@
         <v>3.284248244260482</v>
       </c>
       <c r="C3">
-        <v>0.9342086293453633</v>
+        <v>0.9342086293451075</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.264532899927772</v>
+        <v>1.26453289992773</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.203598147794921</v>
+        <v>2.203598147794935</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.955138708507718</v>
+        <v>2.955138708507832</v>
       </c>
       <c r="C4">
-        <v>0.8421567669119838</v>
+        <v>0.8421567669115291</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.130949543400092</v>
+        <v>1.130949543400035</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.006261351475331</v>
+        <v>2.006261351475317</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.822702750753592</v>
+        <v>2.82270275075382</v>
       </c>
       <c r="C5">
-        <v>0.8051112361059722</v>
+        <v>0.805111236105887</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077595472501073</v>
+        <v>1.077595472500988</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.927967664498979</v>
+        <v>1.927967664498965</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.800803632936777</v>
+        <v>2.800803632936947</v>
       </c>
       <c r="C6">
-        <v>0.7989850808850179</v>
+        <v>0.7989850808847905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068795157610083</v>
+        <v>1.068795157610097</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.915085225815076</v>
+        <v>1.915085225815105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.95334627461591</v>
+        <v>2.95334627461574</v>
       </c>
       <c r="C7">
-        <v>0.8416554045469695</v>
+        <v>0.8416554045474811</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.13022589799634</v>
+        <v>1.130225897996354</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.005197320734283</v>
+        <v>2.005197320734268</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642178523041878</v>
+        <v>3.642178523042276</v>
       </c>
       <c r="C8">
-        <v>1.034337365081228</v>
+        <v>1.034337365081512</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.411436176245999</v>
+        <v>1.411436176245942</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.422472024899079</v>
+        <v>2.422472024899108</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.076985131110519</v>
+        <v>5.076985131110689</v>
       </c>
       <c r="C9">
-        <v>1.436469085153362</v>
+        <v>1.436469085153078</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.017761257242057</v>
+        <v>2.017761257242071</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.216695052337798</v>
+        <v>6.216695052337741</v>
       </c>
       <c r="C10">
-        <v>1.757454390971077</v>
+        <v>1.757454390971418</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.520494390560515</v>
+        <v>2.520494390560614</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>4.109843904971825</v>
+        <v>4.10984390497191</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.764246734417839</v>
+        <v>6.764246734418123</v>
       </c>
       <c r="C11">
-        <v>1.912351688686726</v>
+        <v>1.91235168868667</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.76922774741621</v>
+        <v>2.769227747416238</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.976966499065213</v>
+        <v>6.976966499064929</v>
       </c>
       <c r="C12">
-        <v>1.972667213047089</v>
+        <v>1.97266721304743</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>2.867195493206765</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.642163468401804</v>
+        <v>4.642163468401748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>6.930891702022222</v>
       </c>
       <c r="C13">
-        <v>1.959596020499362</v>
+        <v>1.959596020499589</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.845910840355089</v>
+        <v>2.84591084035506</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.609489830534017</v>
+        <v>4.609489830534102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.781631541949253</v>
+        <v>6.781631541949309</v>
       </c>
       <c r="C14">
-        <v>1.917278018771469</v>
+        <v>1.917278018771299</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.77720569933814</v>
+        <v>2.777205699338111</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.504006511517048</v>
+        <v>4.504006511517105</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.690946472241592</v>
+        <v>6.690946472241819</v>
       </c>
       <c r="C15">
-        <v>1.891586434377587</v>
+        <v>1.891586434377359</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.440190961370547</v>
+        <v>4.440190961370575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.181590914485469</v>
+        <v>6.181590914485525</v>
       </c>
       <c r="C16">
-        <v>1.747540353067279</v>
+        <v>1.747540353066711</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.504712585342489</v>
+        <v>2.504712585342531</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>4.085619620845222</v>
+        <v>4.085619620845193</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.87731602243332</v>
+        <v>5.877316022433376</v>
       </c>
       <c r="C17">
-        <v>1.661685834241894</v>
+        <v>1.661685834242348</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.368728775343797</v>
+        <v>2.368728775343811</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.876983908325428</v>
+        <v>3.876983908325485</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704956007538385</v>
+        <v>5.704956007538613</v>
       </c>
       <c r="C18">
         <v>1.613112117569074</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.292333503433383</v>
+        <v>2.292333503433412</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.759872067536378</v>
+        <v>3.759872067536406</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.647022094282363</v>
       </c>
       <c r="C19">
-        <v>1.596794668852567</v>
+        <v>1.596794668852738</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.26675686017893</v>
+        <v>2.266756860178916</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
         <v>3.720684244183701</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.909424678400399</v>
+        <v>5.909424678400342</v>
       </c>
       <c r="C20">
-        <v>1.670739197828084</v>
+        <v>1.6707391978278</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.38301061435439</v>
+        <v>2.383010614354404</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.898886613543965</v>
+        <v>3.898886613543993</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.825315784422799</v>
+        <v>6.825315784422855</v>
       </c>
       <c r="C21">
-        <v>1.929659176600808</v>
+        <v>1.929659176600865</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.797274905465017</v>
+        <v>2.797274905465088</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.534820891784221</v>
+        <v>4.534820891784278</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.456062676667671</v>
+        <v>7.456062676667784</v>
       </c>
       <c r="C22">
-        <v>2.108822329672023</v>
+        <v>2.108822329671909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.090699577193107</v>
+        <v>3.090699577193135</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.985024433126426</v>
+        <v>4.985024433126512</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.115985818741422</v>
+        <v>7.115985818741251</v>
       </c>
       <c r="C23">
-        <v>2.012130103285699</v>
+        <v>2.012130103285585</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.931637090429774</v>
+        <v>2.931637090429803</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.74106766111035</v>
+        <v>4.741067661110321</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.894900429682082</v>
+        <v>5.894900429682025</v>
       </c>
       <c r="C24">
-        <v>1.666643753640926</v>
+        <v>1.666643753641154</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.3765483026569</v>
+        <v>2.376548302656872</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.888975655947121</v>
+        <v>3.888975655947092</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.67673622309303</v>
+        <v>4.676736223092973</v>
       </c>
       <c r="C25">
-        <v>1.324118488075555</v>
+        <v>1.324118488075612</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.077896036563061</v>
+        <v>3.077896036563089</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.833467659363691</v>
+        <v>3.832777798622374</v>
       </c>
       <c r="C2">
-        <v>1.087867365620497</v>
+        <v>1.087540298017444</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.490644891594528</v>
+        <v>1.490487569905696</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.541173396514623</v>
+        <v>0.8333994768101718</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.697301694801396</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,31 +447,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.284248244260482</v>
+        <v>3.283786161381499</v>
       </c>
       <c r="C3">
-        <v>0.9342086293451075</v>
+        <v>0.933978497122979</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.26453289992773</v>
+        <v>1.26443128464544</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.203598147794935</v>
+        <v>0.7175258725049787</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.477690993351132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,31 +488,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.955138708507832</v>
+        <v>2.954793505217935</v>
       </c>
       <c r="C4">
-        <v>0.8421567669115291</v>
+        <v>0.8419783355716106</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.130949543400035</v>
+        <v>1.130875164670755</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.006261351475317</v>
+        <v>0.6496641253348372</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.349454491825611</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,31 +529,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.82270275075382</v>
+        <v>2.822400436585269</v>
       </c>
       <c r="C5">
-        <v>0.805111236105887</v>
+        <v>0.8049522753531733</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077595472500988</v>
+        <v>1.077530837343701</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.927967664498965</v>
+        <v>0.6227094052817819</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.298611030421128</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,31 +570,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.800803632936947</v>
+        <v>2.800508180876136</v>
       </c>
       <c r="C6">
-        <v>0.7989850808847905</v>
+        <v>0.7988292661665355</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068795157610097</v>
+        <v>1.068732068333247</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.915085225815105</v>
+        <v>0.6182724617782753</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.290247314360016</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,31 +611,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.95334627461574</v>
+        <v>2.953001667706644</v>
       </c>
       <c r="C7">
-        <v>0.8416554045474811</v>
+        <v>0.8414772418281871</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.130225897996354</v>
+        <v>1.130151655704907</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.005197320734268</v>
+        <v>0.6492979272459536</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.348763376407064</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,31 +652,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.642178523042276</v>
+        <v>3.641572660091185</v>
       </c>
       <c r="C8">
-        <v>1.034337365081512</v>
+        <v>1.034045588468473</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.411436176245942</v>
+        <v>1.411299779658947</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.422472024899108</v>
+        <v>0.7926824967978376</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.620049090964997</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,31 +693,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.076985131110689</v>
+        <v>5.075623994700038</v>
       </c>
       <c r="C9">
-        <v>1.436469085153078</v>
+        <v>1.435870976014883</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.017761257242071</v>
+        <v>2.017422721001623</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.339905235042977</v>
+        <v>1.106769895667838</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.217806044406103</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,31 +734,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.216695052337741</v>
+        <v>6.21451384685588</v>
       </c>
       <c r="C10">
-        <v>1.757454390971418</v>
+        <v>1.756538766513756</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.520494390560614</v>
+        <v>2.519905629806033</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>4.10984390497191</v>
+        <v>1.369530508668447</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.720360408297068</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,31 +775,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.764246734418123</v>
+        <v>6.761593891118594</v>
       </c>
       <c r="C11">
-        <v>1.91235168868667</v>
+        <v>1.911256992197366</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.769227747416238</v>
+        <v>2.768482464954189</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.491756751959429</v>
+        <v>1.499659212223463</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.9698552873663</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,31 +816,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.976966499064929</v>
+        <v>6.974115618943188</v>
       </c>
       <c r="C12">
-        <v>1.97266721304743</v>
+        <v>1.971497856270503</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.867195493206765</v>
+        <v>2.866381919844599</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.642163468401748</v>
+        <v>1.550874381407283</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.068144269353098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,31 +857,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.930891702022222</v>
+        <v>6.928084444921694</v>
       </c>
       <c r="C13">
-        <v>1.959596020499589</v>
+        <v>1.958443086096224</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.84591084035506</v>
+        <v>2.845112437519717</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.609489830534102</v>
+        <v>1.539750138863099</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.046791022122306</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,31 +898,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.781631541949309</v>
+        <v>6.778962833567959</v>
       </c>
       <c r="C14">
-        <v>1.917278018771299</v>
+        <v>1.916177330706887</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.777205699338111</v>
+        <v>2.776455000966806</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.504006511517105</v>
+        <v>1.503831057383564</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.977859724950605</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,31 +939,34 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.690946472241819</v>
+        <v>6.688359904709387</v>
       </c>
       <c r="C15">
-        <v>1.891586434377359</v>
+        <v>1.890516788123705</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.735645421211629</v>
+        <v>2.73492265897103</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.440190961370575</v>
+        <v>1.482096366063928</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.936161594846226</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,31 +980,34 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.181590914485525</v>
+        <v>6.179438144017581</v>
       </c>
       <c r="C16">
-        <v>1.747540353066711</v>
+        <v>1.746635591037773</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.504712585342531</v>
+        <v>2.504132978289675</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>4.085619620845193</v>
+        <v>1.361272338895532</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.704539466772928</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,31 +1021,34 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.877316022433376</v>
+        <v>5.875400982695112</v>
       </c>
       <c r="C17">
-        <v>1.661685834242348</v>
+        <v>1.660872237957051</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.368728775343811</v>
+        <v>2.368224396579521</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.876983908325485</v>
+        <v>1.290124958021522</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.568301801996228</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,31 +1062,34 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.704956007538613</v>
+        <v>5.703168832290828</v>
       </c>
       <c r="C18">
-        <v>1.613112117569074</v>
+        <v>1.612347842376948</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.292333503433412</v>
+        <v>2.291868605766396</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.759872067536406</v>
+        <v>1.250169931093041</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.49184751539741</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,31 +1103,34 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.647022094282363</v>
+        <v>5.645276816786861</v>
       </c>
       <c r="C19">
-        <v>1.596794668852738</v>
+        <v>1.596046603659943</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.266756860178916</v>
+        <v>2.266304746823621</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.720684244183701</v>
+        <v>1.236797133327372</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.466267688743471</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,31 +1144,34 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.909424678400342</v>
+        <v>5.907485281733386</v>
       </c>
       <c r="C20">
-        <v>1.6707391978278</v>
+        <v>1.669916230445892</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.383010614354404</v>
+        <v>2.382498636162879</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.898886613543993</v>
+        <v>1.297595996038496</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.582602129789933</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,31 +1185,34 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.825315784422855</v>
+        <v>6.822606961305326</v>
       </c>
       <c r="C21">
-        <v>1.929659176600865</v>
+        <v>1.928543347203515</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.797274905465088</v>
+        <v>2.796510470075759</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.534820891784278</v>
+        <v>1.514324844600253</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.997995463685385</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,31 +1226,34 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.456062676667784</v>
+        <v>7.452733421770461</v>
       </c>
       <c r="C22">
-        <v>2.108822329671909</v>
+        <v>2.107473654544151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.090699577193135</v>
+        <v>3.089715009235945</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.985024433126512</v>
+        <v>1.667558740893583</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.29225891734572</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,31 +1267,34 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.115985818741251</v>
+        <v>7.113000830045792</v>
       </c>
       <c r="C23">
-        <v>2.012130103285585</v>
+        <v>2.01091033812628</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.931637090429803</v>
+        <v>2.930776432196183</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.741067661110321</v>
+        <v>1.584542886846094</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.132785889634306</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,31 +1308,34 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.894900429682025</v>
+        <v>5.892972071859788</v>
       </c>
       <c r="C24">
-        <v>1.666643753641154</v>
+        <v>1.665825032431542</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.376548302656872</v>
+        <v>2.37603977170977</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.888975655947092</v>
+        <v>1.29421541474909</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.576131182789709</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,31 +1349,34 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.676736223092973</v>
+        <v>4.675615391780468</v>
       </c>
       <c r="C25">
-        <v>1.324118488075612</v>
+        <v>1.323615730639574</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.845746853164044</v>
+        <v>1.845475863370652</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.077896036563089</v>
+        <v>1.017198724493923</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.046951171780833</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.832777798622374</v>
+        <v>3.566280554437867</v>
       </c>
       <c r="C2">
-        <v>1.087540298017444</v>
+        <v>0.9603545033954219</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.490487569905696</v>
+        <v>0.03858953657733544</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>6.562664230049478</v>
       </c>
       <c r="G2">
-        <v>0.8333994768101718</v>
+        <v>0.0007788021264666334</v>
       </c>
       <c r="H2">
-        <v>1.697301694801396</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.63501825591932</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.283786161381499</v>
+        <v>3.0577733097075</v>
       </c>
       <c r="C3">
-        <v>0.933978497122979</v>
+        <v>0.8193581979809039</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.26443128464544</v>
+        <v>0.02970392585918269</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>5.746863817778603</v>
       </c>
       <c r="G3">
-        <v>0.7175258725049787</v>
+        <v>0.000791550765405584</v>
       </c>
       <c r="H3">
-        <v>1.477690993351132</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5520399065801058</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.954793505217935</v>
+        <v>2.754596688859522</v>
       </c>
       <c r="C4">
-        <v>0.8419783355716106</v>
+        <v>0.7353799502125753</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.130875164670755</v>
+        <v>0.02493281342707654</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>5.264103704358007</v>
       </c>
       <c r="G4">
-        <v>0.6496641253348372</v>
+        <v>0.0007994962678418348</v>
       </c>
       <c r="H4">
-        <v>1.349454491825611</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5029679705033629</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.822400436585269</v>
+        <v>2.632971779205036</v>
       </c>
       <c r="C5">
-        <v>0.8049522753531733</v>
+        <v>0.7017025710865994</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.077530837343701</v>
+        <v>0.02313413786910345</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>5.071238367034994</v>
       </c>
       <c r="G5">
-        <v>0.6227094052817819</v>
+        <v>0.0008027689132503124</v>
       </c>
       <c r="H5">
-        <v>1.298611030421128</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4833654048913019</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.800508180876136</v>
+        <v>2.612882673783247</v>
       </c>
       <c r="C6">
-        <v>0.7988292661665355</v>
+        <v>0.6961404706639769</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.068732068333247</v>
+        <v>0.02284356302311608</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>5.039427839841977</v>
       </c>
       <c r="G6">
-        <v>0.6182724617782753</v>
+        <v>0.0008033145738598523</v>
       </c>
       <c r="H6">
-        <v>1.290247314360016</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.480132179469507</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.953001667706644</v>
+        <v>2.752949064290192</v>
       </c>
       <c r="C7">
-        <v>0.8414772418281871</v>
+        <v>0.7349236928884011</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.130151655704907</v>
+        <v>0.02490799849231529</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>5.261487870137614</v>
       </c>
       <c r="G7">
-        <v>0.6492979272459536</v>
+        <v>0.0007995402567325008</v>
       </c>
       <c r="H7">
-        <v>1.348763376407064</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5027021003797785</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.641572660091185</v>
+        <v>3.388841004136907</v>
       </c>
       <c r="C8">
-        <v>1.034045588468473</v>
+        <v>0.911130770862826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.411299779658947</v>
+        <v>0.03536627729472386</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>6.277158582510765</v>
       </c>
       <c r="G8">
-        <v>0.7926824967978376</v>
+        <v>0.0007831767417512125</v>
       </c>
       <c r="H8">
-        <v>1.620049090964997</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6059677267638364</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.075623994700038</v>
+        <v>4.726578114806841</v>
       </c>
       <c r="C9">
-        <v>1.435870976014883</v>
+        <v>1.283078137995574</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.017422721001623</v>
+        <v>0.06278418707719524</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>8.450432425994563</v>
       </c>
       <c r="G9">
-        <v>1.106769895667838</v>
+        <v>0.0007517465253154611</v>
       </c>
       <c r="H9">
-        <v>2.217806044406103</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8275275309316186</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.21451384685588</v>
+        <v>5.797290805255273</v>
       </c>
       <c r="C10">
-        <v>1.756538766513756</v>
+        <v>1.582527001014398</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.519905629806033</v>
+        <v>0.08979233280580701</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>10.22257923266898</v>
       </c>
       <c r="G10">
-        <v>1.369530508668447</v>
+        <v>0.0007285843018129184</v>
       </c>
       <c r="H10">
-        <v>2.720360408297068</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.009112996915519</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.761593891118594</v>
+        <v>6.313125414459648</v>
       </c>
       <c r="C11">
-        <v>1.911256992197366</v>
+        <v>1.727463455010536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.768482464954189</v>
+        <v>0.1044062467336992</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>11.0862180989688</v>
       </c>
       <c r="G11">
-        <v>1.499659212223463</v>
+        <v>0.0007178924241549496</v>
       </c>
       <c r="H11">
-        <v>2.9698552873663</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.097958869059454</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.974115618943188</v>
+        <v>6.513660099553249</v>
       </c>
       <c r="C12">
-        <v>1.971497856270503</v>
+        <v>1.783937404589096</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.866381919844599</v>
+        <v>0.1103722011255144</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>11.42367118283278</v>
       </c>
       <c r="G12">
-        <v>1.550874381407283</v>
+        <v>0.000713806002832445</v>
       </c>
       <c r="H12">
-        <v>3.068144269353098</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.132740229306023</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.928084444921694</v>
+        <v>6.470220159938037</v>
       </c>
       <c r="C13">
-        <v>1.958443086096224</v>
+        <v>1.771697681536011</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.845112437519717</v>
+        <v>0.10906623794002</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>11.35049110514376</v>
       </c>
       <c r="G13">
-        <v>1.539750138863099</v>
+        <v>0.0007146880483217544</v>
       </c>
       <c r="H13">
-        <v>3.046791022122306</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.125194329424033</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.778962833567959</v>
+        <v>6.329512233151036</v>
       </c>
       <c r="C14">
-        <v>1.916177330706887</v>
+        <v>1.732075489239378</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.776455000966806</v>
+        <v>0.1048877473843746</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>11.11375754292311</v>
       </c>
       <c r="G14">
-        <v>1.503831057383564</v>
+        <v>0.0007175570883526592</v>
       </c>
       <c r="H14">
-        <v>2.977859724950605</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.100795951593653</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.688359904709387</v>
+        <v>6.244037941473948</v>
       </c>
       <c r="C15">
-        <v>1.890516788123705</v>
+        <v>1.708024294335473</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.73492265897103</v>
+        <v>0.1023879509269001</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>10.97018076308331</v>
       </c>
       <c r="G15">
-        <v>1.482096366063928</v>
+        <v>0.0007193090343541144</v>
       </c>
       <c r="H15">
-        <v>2.936161594846226</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.086007575373884</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.179438144017581</v>
+        <v>5.764243455674318</v>
       </c>
       <c r="C16">
-        <v>1.746635591037773</v>
+        <v>1.573257236575557</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.504132978289675</v>
+        <v>0.08889179013488047</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>10.16746609935151</v>
       </c>
       <c r="G16">
-        <v>1.361272338895532</v>
+        <v>0.0007292786942825021</v>
       </c>
       <c r="H16">
-        <v>2.704539466772928</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.003451407420556</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.875400982695112</v>
+        <v>5.47794803900814</v>
       </c>
       <c r="C17">
-        <v>1.660872237957051</v>
+        <v>1.493027451826663</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.368224396579521</v>
+        <v>0.08126916704539155</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>9.691110049036098</v>
       </c>
       <c r="G17">
-        <v>1.290124958021522</v>
+        <v>0.0007353452497719826</v>
       </c>
       <c r="H17">
-        <v>2.568301801996228</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.954556449314822</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.703168832290828</v>
+        <v>5.315908777920072</v>
       </c>
       <c r="C18">
-        <v>1.612347842376948</v>
+        <v>1.447677312677683</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.291868605766396</v>
+        <v>0.07709672474993212</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>9.422377193809666</v>
       </c>
       <c r="G18">
-        <v>1.250169931093041</v>
+        <v>0.0007388210648520513</v>
       </c>
       <c r="H18">
-        <v>2.49184751539741</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9270034314786244</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.645276816786861</v>
+        <v>5.261468609241206</v>
       </c>
       <c r="C19">
-        <v>1.596046603659943</v>
+        <v>1.432450349492569</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.266304746823621</v>
+        <v>0.07571788296839088</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>9.332234589981283</v>
       </c>
       <c r="G19">
-        <v>1.236797133327372</v>
+        <v>0.0007399960028760119</v>
       </c>
       <c r="H19">
-        <v>2.466267688743471</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9177660316416052</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.907485281733386</v>
+        <v>5.50814558819701</v>
       </c>
       <c r="C20">
-        <v>1.669916230445892</v>
+        <v>1.501483513510721</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.382498636162879</v>
+        <v>0.08205806412040673</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>9.741261329611348</v>
       </c>
       <c r="G20">
-        <v>1.297595996038496</v>
+        <v>0.0007347009516469728</v>
       </c>
       <c r="H20">
-        <v>2.582602129789933</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9597008601856771</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.822606961305326</v>
+        <v>6.370690588407854</v>
       </c>
       <c r="C21">
-        <v>1.928543347203515</v>
+        <v>1.743667209709486</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.796510470075759</v>
+        <v>0.1061024226716114</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>11.18298937421764</v>
       </c>
       <c r="G21">
-        <v>1.514324844600253</v>
+        <v>0.0007167155454135648</v>
       </c>
       <c r="H21">
-        <v>2.997995463685385</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.107929242993436</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.452733421770461</v>
+        <v>6.965434644815502</v>
       </c>
       <c r="C22">
-        <v>2.107473654544151</v>
+        <v>1.911442732711691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.089715009235945</v>
+        <v>0.1244040006163765</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>12.18738590946776</v>
       </c>
       <c r="G22">
-        <v>1.667558740893583</v>
+        <v>0.0007047313484714277</v>
       </c>
       <c r="H22">
-        <v>3.29225891734572</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.211597720898595</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.113000830045792</v>
+        <v>6.644740662784159</v>
       </c>
       <c r="C23">
-        <v>2.01091033812628</v>
+        <v>1.820892355082037</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.930776432196183</v>
+        <v>0.1143587731504603</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>11.64476349665563</v>
       </c>
       <c r="G23">
-        <v>1.584542886846094</v>
+        <v>0.0007111547408501324</v>
       </c>
       <c r="H23">
-        <v>3.132785889634306</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.155548862029519</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.892972071859788</v>
+        <v>5.494485391870398</v>
       </c>
       <c r="C24">
-        <v>1.665825032431542</v>
+        <v>1.497658138080567</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.37603977170977</v>
+        <v>0.08170075685638523</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>9.718572108947114</v>
       </c>
       <c r="G24">
-        <v>1.29421541474909</v>
+        <v>0.0007349922747459647</v>
       </c>
       <c r="H24">
-        <v>2.576131182789709</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9573733532117785</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.675615391780468</v>
+        <v>4.351996485366215</v>
       </c>
       <c r="C25">
-        <v>1.323615730639574</v>
+        <v>1.178713370290097</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.845475863370652</v>
+        <v>0.05439138140878441</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>7.837169825496858</v>
       </c>
       <c r="G25">
-        <v>1.017198724493923</v>
+        <v>0.0007602219097069178</v>
       </c>
       <c r="H25">
-        <v>2.046951171780833</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7648958442060518</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.566280554437867</v>
+        <v>0.8075151831298228</v>
       </c>
       <c r="C2">
-        <v>0.9603545033954219</v>
+        <v>0.1407376848508761</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03858953657733544</v>
+        <v>0.3568792855821954</v>
       </c>
       <c r="F2">
-        <v>6.562664230049478</v>
+        <v>1.621375659616319</v>
       </c>
       <c r="G2">
-        <v>0.0007788021264666334</v>
+        <v>0.5110196808056173</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4003072975082063</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3501994248992126</v>
       </c>
       <c r="J2">
-        <v>0.63501825591932</v>
+        <v>0.02882519724901167</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9013739272071746</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6038451993470488</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8454184968794074</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.0577733097075</v>
+        <v>0.7006034418671163</v>
       </c>
       <c r="C3">
-        <v>0.8193581979809039</v>
+        <v>0.1219232597034505</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02970392585918269</v>
+        <v>0.3184608511944091</v>
       </c>
       <c r="F3">
-        <v>5.746863817778603</v>
+        <v>1.500613008197362</v>
       </c>
       <c r="G3">
-        <v>0.000791550765405584</v>
+        <v>0.4931486674480396</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3989674614440588</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3508073322298131</v>
       </c>
       <c r="J3">
-        <v>0.5520399065801058</v>
+        <v>0.03009407586058344</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.781739487535134</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5273606339826102</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8911312974463677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.754596688859522</v>
+        <v>0.6352149730385861</v>
       </c>
       <c r="C4">
-        <v>0.7353799502125753</v>
+        <v>0.110446688621451</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02493281342707654</v>
+        <v>0.2952252687638008</v>
       </c>
       <c r="F4">
-        <v>5.264103704358007</v>
+        <v>1.429051251360519</v>
       </c>
       <c r="G4">
-        <v>0.0007994962678418348</v>
+        <v>0.4833688075598275</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.398854299438824</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3519196853039652</v>
       </c>
       <c r="J4">
-        <v>0.5029679705033629</v>
+        <v>0.03090426994184892</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.708608336173242</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4808325432264979</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9204138720776296</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.632971779205036</v>
+        <v>0.6086203003710295</v>
       </c>
       <c r="C5">
-        <v>0.7017025710865994</v>
+        <v>0.1057854544769015</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02313413786910345</v>
+        <v>0.2858378287763728</v>
       </c>
       <c r="F5">
-        <v>5.071238367034994</v>
+        <v>1.400497512612318</v>
       </c>
       <c r="G5">
-        <v>0.0008027689132503124</v>
+        <v>0.4796667271079471</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3989791645006733</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3525506967282048</v>
       </c>
       <c r="J5">
-        <v>0.4833654048913019</v>
+        <v>0.03124211906259422</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6788727943865212</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.461968608293958</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9326442188506405</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.612882673783247</v>
+        <v>0.6042070391011976</v>
       </c>
       <c r="C6">
-        <v>0.6961404706639769</v>
+        <v>0.1050123033880652</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02284356302311608</v>
+        <v>0.2842837436533685</v>
       </c>
       <c r="F6">
-        <v>5.039427839841977</v>
+        <v>1.395791731827444</v>
       </c>
       <c r="G6">
-        <v>0.0008033145738598523</v>
+        <v>0.4790686380965781</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3990100152884679</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3526659796800828</v>
       </c>
       <c r="J6">
-        <v>0.480132179469507</v>
+        <v>0.03129867931020858</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6739387746657286</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4588417532153528</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9346927989056066</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.752949064290192</v>
+        <v>0.6348561150219894</v>
       </c>
       <c r="C7">
-        <v>0.7349236928884011</v>
+        <v>0.1103837669737544</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02490799849231529</v>
+        <v>0.2950983472735942</v>
       </c>
       <c r="F7">
-        <v>5.261487870137614</v>
+        <v>1.428663757000834</v>
       </c>
       <c r="G7">
-        <v>0.0007995402567325008</v>
+        <v>0.4833177543947045</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3988553006506663</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3519274862068791</v>
       </c>
       <c r="J7">
-        <v>0.5027021003797785</v>
+        <v>0.03090879533103474</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7082070651344452</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4805777622242218</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.920577620649107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.388841004136907</v>
+        <v>0.7705910546026189</v>
       </c>
       <c r="C8">
-        <v>0.911130770862826</v>
+        <v>0.1342326478762601</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03536627729472386</v>
+        <v>0.3435544954053</v>
       </c>
       <c r="F8">
-        <v>6.277158582510765</v>
+        <v>1.579173558113979</v>
       </c>
       <c r="G8">
-        <v>0.0007831767417512125</v>
+        <v>0.5045998075156319</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3996934649593555</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3502506026442873</v>
       </c>
       <c r="J8">
-        <v>0.6059677267638364</v>
+        <v>0.02925617134189862</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8600467787012178</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5773755733103911</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8609232153121535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.726578114806841</v>
+        <v>1.039416755728752</v>
       </c>
       <c r="C9">
-        <v>1.283078137995574</v>
+        <v>0.1817678797020079</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06278418707719524</v>
+        <v>0.4417536757459786</v>
       </c>
       <c r="F9">
-        <v>8.450432425994563</v>
+        <v>1.896892377249088</v>
       </c>
       <c r="G9">
-        <v>0.0007517465253154611</v>
+        <v>0.5566018417908936</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4073233721616987</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3532158669165</v>
       </c>
       <c r="J9">
-        <v>0.8275275309316186</v>
+        <v>0.02626831303649224</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.161150308145949</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7712437287219984</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7539585629967327</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.797290805255273</v>
+        <v>1.239478227993629</v>
       </c>
       <c r="C10">
-        <v>1.582527001014398</v>
+        <v>0.2174144603615957</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08979233280580701</v>
+        <v>0.5163983147858531</v>
       </c>
       <c r="F10">
-        <v>10.22257923266898</v>
+        <v>2.147138397779159</v>
       </c>
       <c r="G10">
-        <v>0.0007285843018129184</v>
+        <v>0.6022605056740105</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.417109025967747</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3597840293997763</v>
       </c>
       <c r="J10">
-        <v>1.009112996915519</v>
+        <v>0.02423638599621469</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.385574453882384</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9170620467736512</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6820360832688142</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.313125414459648</v>
+        <v>1.331273046897422</v>
       </c>
       <c r="C11">
-        <v>1.727463455010536</v>
+        <v>0.2338498436022718</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1044062467336992</v>
+        <v>0.5510344053707428</v>
       </c>
       <c r="F11">
-        <v>11.0862180989688</v>
+        <v>2.265372154245554</v>
       </c>
       <c r="G11">
-        <v>0.0007178924241549496</v>
+        <v>0.6249370682826338</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4225961499155773</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3638637602120838</v>
       </c>
       <c r="J11">
-        <v>1.097958869059454</v>
+        <v>0.02334964238788562</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.488647711556837</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9843548430574529</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6508979241402759</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.513660099553249</v>
+        <v>1.366166500393831</v>
       </c>
       <c r="C12">
-        <v>1.783937404589096</v>
+        <v>0.2401106692538804</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1103722011255144</v>
+        <v>0.5642601980505901</v>
       </c>
       <c r="F12">
-        <v>11.42367118283278</v>
+        <v>2.310842961865603</v>
       </c>
       <c r="G12">
-        <v>0.000713806002832445</v>
+        <v>0.6338241663913635</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4248344816142833</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3655782023279244</v>
       </c>
       <c r="J12">
-        <v>1.132740229306023</v>
+        <v>0.02301946445704495</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.527845112096713</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.009994686002365</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6393462291914513</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.470220159938037</v>
+        <v>1.358645335499091</v>
       </c>
       <c r="C13">
-        <v>1.771697681536011</v>
+        <v>0.238760545076218</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.10906623794002</v>
+        <v>0.5614066975293284</v>
       </c>
       <c r="F13">
-        <v>11.35049110514376</v>
+        <v>2.301017843245347</v>
       </c>
       <c r="G13">
-        <v>0.0007146880483217544</v>
+        <v>0.6318963954023786</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4243450855754958</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3652012163354073</v>
       </c>
       <c r="J13">
-        <v>1.125194329424033</v>
+        <v>0.02309032108043763</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.519395462744114</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.004465352125827</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6418232255614846</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.329512233151036</v>
+        <v>1.334140973121237</v>
       </c>
       <c r="C14">
-        <v>1.732075489239378</v>
+        <v>0.234364148519802</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1048877473843746</v>
+        <v>0.552120224693212</v>
       </c>
       <c r="F14">
-        <v>11.11375754292311</v>
+        <v>2.269098672658458</v>
       </c>
       <c r="G14">
-        <v>0.0007175570883526592</v>
+        <v>0.6256620477532522</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4227770130991502</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3640013353690108</v>
       </c>
       <c r="J14">
-        <v>1.100795951593653</v>
+        <v>0.02332236471896421</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.491869034169383</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9864609734881924</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6499426812885769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.244037941473948</v>
+        <v>1.319149244193085</v>
       </c>
       <c r="C15">
-        <v>1.708024294335473</v>
+        <v>0.2316762328207886</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1023879509269001</v>
+        <v>0.5464466748076688</v>
       </c>
       <c r="F15">
-        <v>10.97018076308331</v>
+        <v>2.249640247796293</v>
       </c>
       <c r="G15">
-        <v>0.0007193090343541144</v>
+        <v>0.621883198128387</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4218377811184411</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3632888408490729</v>
       </c>
       <c r="J15">
-        <v>1.086007575373884</v>
+        <v>0.02346523551186142</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.475030658936959</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.975453894237944</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6549476791437812</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.764243455674318</v>
+        <v>1.23349668628876</v>
       </c>
       <c r="C16">
-        <v>1.573257236575557</v>
+        <v>0.2163452496021705</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08889179013488047</v>
+        <v>0.5141494563882603</v>
       </c>
       <c r="F16">
-        <v>10.16746609935151</v>
+        <v>2.139505529458248</v>
       </c>
       <c r="G16">
-        <v>0.0007292786942825021</v>
+        <v>0.6008190619053835</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4167722357242809</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3595404293666888</v>
       </c>
       <c r="J16">
-        <v>1.003451407420556</v>
+        <v>0.02429511052643329</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.378860187622081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9126852448994569</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6841038689516328</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.47794803900814</v>
+        <v>1.181166453284078</v>
       </c>
       <c r="C17">
-        <v>1.493027451826663</v>
+        <v>0.207000212114167</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08126916704539155</v>
+        <v>0.4945185812549155</v>
       </c>
       <c r="F17">
-        <v>9.691110049036098</v>
+        <v>2.073112684492742</v>
       </c>
       <c r="G17">
-        <v>0.0007353452497719826</v>
+        <v>0.5884028970271657</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4139378682876611</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3575291636226865</v>
       </c>
       <c r="J17">
-        <v>0.954556449314822</v>
+        <v>0.0248139820359734</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.320131042493131</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8744378428636495</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7024034391068721</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.315908777920072</v>
+        <v>1.151140183706701</v>
       </c>
       <c r="C18">
-        <v>1.447677312677683</v>
+        <v>0.2016455030553175</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07709672474993212</v>
+        <v>0.4832906322821486</v>
       </c>
       <c r="F18">
-        <v>9.422377193809666</v>
+        <v>2.035334743248441</v>
       </c>
       <c r="G18">
-        <v>0.0007388210648520513</v>
+        <v>0.5814392045453332</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4124043447298646</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.356474300721807</v>
       </c>
       <c r="J18">
-        <v>0.9270034314786244</v>
+        <v>0.02511594802895978</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.286442393858209</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8525279802845986</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7130767574517947</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.261468609241206</v>
+        <v>1.14098571405475</v>
       </c>
       <c r="C19">
-        <v>1.432450349492569</v>
+        <v>0.199835817937867</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07571788296839088</v>
+        <v>0.4794995460287836</v>
       </c>
       <c r="F19">
-        <v>9.332234589981283</v>
+        <v>2.022612177676876</v>
       </c>
       <c r="G19">
-        <v>0.0007399960028760119</v>
+        <v>0.5791111923780505</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.411901395795951</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3561342883834939</v>
       </c>
       <c r="J19">
-        <v>0.9177660316416052</v>
+        <v>0.02521878786921583</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.275050872855672</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8451243979677656</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7167155949706423</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.50814558819701</v>
+        <v>1.186729434066564</v>
       </c>
       <c r="C20">
-        <v>1.501483513510721</v>
+        <v>0.2079928668322708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08205806412040673</v>
+        <v>0.4966016949069285</v>
       </c>
       <c r="F20">
-        <v>9.741261329611348</v>
+        <v>2.080137475507854</v>
       </c>
       <c r="G20">
-        <v>0.0007347009516469728</v>
+        <v>0.5897060408414916</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4142294995305065</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3577326256979418</v>
       </c>
       <c r="J20">
-        <v>0.9597008601856771</v>
+        <v>0.02475838102335404</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.326373290353331</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.878499992987976</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7004400252378638</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.370690588407854</v>
+        <v>1.341334730392134</v>
       </c>
       <c r="C21">
-        <v>1.743667209709486</v>
+        <v>0.235654423348393</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1061024226716114</v>
+        <v>0.5548448039394245</v>
       </c>
       <c r="F21">
-        <v>11.18298937421764</v>
+        <v>2.278454602214964</v>
       </c>
       <c r="G21">
-        <v>0.0007167155454135648</v>
+        <v>0.6274848691769961</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4232331419674438</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3643490635935223</v>
       </c>
       <c r="J21">
-        <v>1.107929242993436</v>
+        <v>0.02325405381807322</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.499949507444342</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9917448567597305</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6475511919114503</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.965434644815502</v>
+        <v>1.443162311280901</v>
       </c>
       <c r="C22">
-        <v>1.911442732711691</v>
+        <v>0.2539520336278827</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1244040006163765</v>
+        <v>0.5935567377848798</v>
       </c>
       <c r="F22">
-        <v>12.18738590946776</v>
+        <v>2.412170945122938</v>
       </c>
       <c r="G22">
-        <v>0.0007047313484714277</v>
+        <v>0.6539375229664302</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4300589709068703</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3696680125470593</v>
       </c>
       <c r="J22">
-        <v>1.211597720898595</v>
+        <v>0.02230371219372618</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.614370899042797</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.066685359664874</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6143886616809109</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.644740662784159</v>
+        <v>1.3887363279336</v>
       </c>
       <c r="C23">
-        <v>1.820892355082037</v>
+        <v>0.2441642446167265</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1143587731504603</v>
+        <v>0.5728320104985087</v>
       </c>
       <c r="F23">
-        <v>11.64476349665563</v>
+        <v>2.340405139389247</v>
       </c>
       <c r="G23">
-        <v>0.0007111547408501324</v>
+        <v>0.6396489286657641</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4263256914795903</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3667337720517025</v>
       </c>
       <c r="J23">
-        <v>1.155548862029519</v>
+        <v>0.02280785118160011</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.55320376521172</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.026596351241267</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6319553333350534</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.494485391870398</v>
+        <v>1.184214227912037</v>
       </c>
       <c r="C24">
-        <v>1.497658138080567</v>
+        <v>0.2075440323617102</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08170075685638523</v>
+        <v>0.4956597391499713</v>
       </c>
       <c r="F24">
-        <v>9.718572108947114</v>
+        <v>2.076960350844246</v>
       </c>
       <c r="G24">
-        <v>0.0007349922747459647</v>
+        <v>0.589116347844481</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4140973549150999</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3576403254649136</v>
       </c>
       <c r="J24">
-        <v>0.9573733532117785</v>
+        <v>0.02478350685699793</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.323550936708926</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8766632500654978</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7013272101047612</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.351996485366215</v>
+        <v>0.9663156059153266</v>
       </c>
       <c r="C25">
-        <v>1.178713370290097</v>
+        <v>0.168801079225247</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05439138140878441</v>
+        <v>0.4147926942640794</v>
       </c>
       <c r="F25">
-        <v>7.837169825496858</v>
+        <v>1.808222403421212</v>
       </c>
       <c r="G25">
-        <v>0.0007602219097069178</v>
+        <v>0.5413165837038321</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4045659300892908</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3516870369686522</v>
       </c>
       <c r="J25">
-        <v>0.7648958442060518</v>
+        <v>0.0270486357789026</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.079220569260656</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7182734171945526</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7817678072760721</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8075151831298228</v>
+        <v>0.301071449564887</v>
       </c>
       <c r="C2">
-        <v>0.1407376848508761</v>
+        <v>0.04442704824161581</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3568792855821954</v>
+        <v>0.4160274979489884</v>
       </c>
       <c r="F2">
-        <v>1.621375659616319</v>
+        <v>2.358060693081583</v>
       </c>
       <c r="G2">
-        <v>0.5110196808056173</v>
+        <v>0.8069844721067341</v>
       </c>
       <c r="H2">
-        <v>0.4003072975082063</v>
+        <v>0.883284444334052</v>
       </c>
       <c r="I2">
-        <v>0.3501994248992126</v>
+        <v>0.7074196399734234</v>
       </c>
       <c r="J2">
-        <v>0.02882519724901167</v>
+        <v>0.06160035768159844</v>
       </c>
       <c r="K2">
-        <v>0.9013739272071746</v>
+        <v>0.3213400753073756</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6038451993470488</v>
+        <v>0.410848662624403</v>
       </c>
       <c r="N2">
-        <v>0.8454184968794074</v>
+        <v>1.75843662132662</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7006034418671163</v>
+        <v>0.2702915342972858</v>
       </c>
       <c r="C3">
-        <v>0.1219232597034505</v>
+        <v>0.03903058097564838</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3184608511944091</v>
+        <v>0.4083150742256478</v>
       </c>
       <c r="F3">
-        <v>1.500613008197362</v>
+        <v>2.342876940250164</v>
       </c>
       <c r="G3">
-        <v>0.4931486674480396</v>
+        <v>0.8085717031098625</v>
       </c>
       <c r="H3">
-        <v>0.3989674614440588</v>
+        <v>0.8883650480969862</v>
       </c>
       <c r="I3">
-        <v>0.3508073322298131</v>
+        <v>0.7123854761517876</v>
       </c>
       <c r="J3">
-        <v>0.03009407586058344</v>
+        <v>0.06214069376210807</v>
       </c>
       <c r="K3">
-        <v>0.781739487535134</v>
+        <v>0.2869203827925446</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5273606339826102</v>
+        <v>0.391878410712664</v>
       </c>
       <c r="N3">
-        <v>0.8911312974463677</v>
+        <v>1.777394830047317</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6352149730385861</v>
+        <v>0.2514541555025005</v>
       </c>
       <c r="C4">
-        <v>0.110446688621451</v>
+        <v>0.03572023839339522</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2952252687638008</v>
+        <v>0.4037670655084185</v>
       </c>
       <c r="F4">
-        <v>1.429051251360519</v>
+        <v>2.334807663926497</v>
       </c>
       <c r="G4">
-        <v>0.4833688075598275</v>
+        <v>0.8100555676451648</v>
       </c>
       <c r="H4">
-        <v>0.398854299438824</v>
+        <v>0.8918672087951762</v>
       </c>
       <c r="I4">
-        <v>0.3519196853039652</v>
+        <v>0.7157935636849366</v>
       </c>
       <c r="J4">
-        <v>0.03090426994184892</v>
+        <v>0.0624895045906313</v>
       </c>
       <c r="K4">
-        <v>0.708608336173242</v>
+        <v>0.2658444808655958</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4808325432264979</v>
+        <v>0.3804200679449821</v>
       </c>
       <c r="N4">
-        <v>0.9204138720776296</v>
+        <v>1.789625611394847</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6086203003710295</v>
+        <v>0.2437935776282529</v>
       </c>
       <c r="C5">
-        <v>0.1057854544769015</v>
+        <v>0.03437202587360844</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2858378287763728</v>
+        <v>0.4019609195103087</v>
       </c>
       <c r="F5">
-        <v>1.400497512612318</v>
+        <v>2.33183460567561</v>
       </c>
       <c r="G5">
-        <v>0.4796667271079471</v>
+        <v>0.8107881711458447</v>
       </c>
       <c r="H5">
-        <v>0.3989791645006733</v>
+        <v>0.8933906119795836</v>
       </c>
       <c r="I5">
-        <v>0.3525506967282048</v>
+        <v>0.7172726317261571</v>
       </c>
       <c r="J5">
-        <v>0.03124211906259422</v>
+        <v>0.06263593587951366</v>
       </c>
       <c r="K5">
-        <v>0.6788727943865212</v>
+        <v>0.2572707174848574</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.461968608293958</v>
+        <v>0.3757984925437299</v>
       </c>
       <c r="N5">
-        <v>0.9326442188506405</v>
+        <v>1.794758158173848</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6042070391011976</v>
+        <v>0.2425225084711542</v>
       </c>
       <c r="C6">
-        <v>0.1050123033880652</v>
+        <v>0.03414820318040768</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2842837436533685</v>
+        <v>0.4016638634114074</v>
       </c>
       <c r="F6">
-        <v>1.395791731827444</v>
+        <v>2.331359971492702</v>
       </c>
       <c r="G6">
-        <v>0.4790686380965781</v>
+        <v>0.8109175408621638</v>
       </c>
       <c r="H6">
-        <v>0.3990100152884679</v>
+        <v>0.8936493855584189</v>
       </c>
       <c r="I6">
-        <v>0.3526659796800828</v>
+        <v>0.7175236792530519</v>
       </c>
       <c r="J6">
-        <v>0.03129867931020858</v>
+        <v>0.06266050974849868</v>
       </c>
       <c r="K6">
-        <v>0.6739387746657286</v>
+        <v>0.2558479547944472</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4588417532153528</v>
+        <v>0.3750339744168656</v>
       </c>
       <c r="N6">
-        <v>0.9346927989056066</v>
+        <v>1.795619375541483</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6348561150219894</v>
+        <v>0.2513507778513713</v>
       </c>
       <c r="C7">
-        <v>0.1103837669737544</v>
+        <v>0.0357020527782197</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2950983472735942</v>
+        <v>0.4037425159717785</v>
       </c>
       <c r="F7">
-        <v>1.428663757000834</v>
+        <v>2.33476629183258</v>
       </c>
       <c r="G7">
-        <v>0.4833177543947045</v>
+        <v>0.8100649300636604</v>
       </c>
       <c r="H7">
-        <v>0.3988553006506663</v>
+        <v>0.8918873642237202</v>
       </c>
       <c r="I7">
-        <v>0.3519274862068791</v>
+        <v>0.7158131455705465</v>
       </c>
       <c r="J7">
-        <v>0.03090879533103474</v>
+        <v>0.06249146204863809</v>
       </c>
       <c r="K7">
-        <v>0.7082070651344452</v>
+        <v>0.2657287916562581</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4805777622242218</v>
+        <v>0.3803575460558193</v>
       </c>
       <c r="N7">
-        <v>0.920577620649107</v>
+        <v>1.789694229899205</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7705910546026189</v>
+        <v>0.2904459252202685</v>
       </c>
       <c r="C8">
-        <v>0.1342326478762601</v>
+        <v>0.04256569727083104</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3435544954053</v>
+        <v>0.4133293865643211</v>
       </c>
       <c r="F8">
-        <v>1.579173558113979</v>
+        <v>2.352565141102701</v>
       </c>
       <c r="G8">
-        <v>0.5045998075156319</v>
+        <v>0.8074259518584199</v>
       </c>
       <c r="H8">
-        <v>0.3996934649593555</v>
+        <v>0.884956831251074</v>
       </c>
       <c r="I8">
-        <v>0.3502506026442873</v>
+        <v>0.7090573162431468</v>
       </c>
       <c r="J8">
-        <v>0.02925617134189862</v>
+        <v>0.0617831300622429</v>
       </c>
       <c r="K8">
-        <v>0.8600467787012178</v>
+        <v>0.3094602940846016</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5773755733103911</v>
+        <v>0.4042684780679693</v>
       </c>
       <c r="N8">
-        <v>0.8609232153121535</v>
+        <v>1.764850854474215</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.039416755728752</v>
+        <v>0.3675904135866119</v>
       </c>
       <c r="C9">
-        <v>0.1817678797020079</v>
+        <v>0.05605078817680464</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4417536757459786</v>
+        <v>0.4336149587925817</v>
       </c>
       <c r="F9">
-        <v>1.896892377249088</v>
+        <v>2.397420240683417</v>
       </c>
       <c r="G9">
-        <v>0.5566018417908936</v>
+        <v>0.8062997337750062</v>
       </c>
       <c r="H9">
-        <v>0.4073233721616987</v>
+        <v>0.8744015272511234</v>
       </c>
       <c r="I9">
-        <v>0.3532158669165</v>
+        <v>0.6986600720804503</v>
       </c>
       <c r="J9">
-        <v>0.02626831303649224</v>
+        <v>0.0605291779554884</v>
       </c>
       <c r="K9">
-        <v>1.161150308145949</v>
+        <v>0.3956697446272415</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7712437287219984</v>
+        <v>0.4526573554894284</v>
       </c>
       <c r="N9">
-        <v>0.7539585629967327</v>
+        <v>1.720818728315653</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.239478227993629</v>
+        <v>0.4245530513908875</v>
       </c>
       <c r="C10">
-        <v>0.2174144603615957</v>
+        <v>0.06597596829398356</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5163983147858531</v>
+        <v>0.4494244904391991</v>
       </c>
       <c r="F10">
-        <v>2.147138397779159</v>
+        <v>2.436456044401567</v>
       </c>
       <c r="G10">
-        <v>0.6022605056740105</v>
+        <v>0.8079526957581606</v>
       </c>
       <c r="H10">
-        <v>0.417109025967747</v>
+        <v>0.8684966170006305</v>
       </c>
       <c r="I10">
-        <v>0.3597840293997763</v>
+        <v>0.6927624541932502</v>
       </c>
       <c r="J10">
-        <v>0.02423638599621469</v>
+        <v>0.05969003097064629</v>
       </c>
       <c r="K10">
-        <v>1.385574453882384</v>
+        <v>0.4592798057854282</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9170620467736512</v>
+        <v>0.489121996974653</v>
       </c>
       <c r="N10">
-        <v>0.6820360832688142</v>
+        <v>1.691325617192485</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.331273046897422</v>
+        <v>0.4505274028913959</v>
       </c>
       <c r="C11">
-        <v>0.2338498436022718</v>
+        <v>0.07049554821148263</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5510344053707428</v>
+        <v>0.456813458335013</v>
       </c>
       <c r="F11">
-        <v>2.265372154245554</v>
+        <v>2.455538336786262</v>
       </c>
       <c r="G11">
-        <v>0.6249370682826338</v>
+        <v>0.8092459777209058</v>
       </c>
       <c r="H11">
-        <v>0.4225961499155773</v>
+        <v>0.8662120179613737</v>
       </c>
       <c r="I11">
-        <v>0.3638637602120838</v>
+        <v>0.6904583101158508</v>
       </c>
       <c r="J11">
-        <v>0.02334964238788562</v>
+        <v>0.05932606831744769</v>
       </c>
       <c r="K11">
-        <v>1.488647711556837</v>
+        <v>0.4882763550435811</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9843548430574529</v>
+        <v>0.5059091058963006</v>
       </c>
       <c r="N11">
-        <v>0.6508979241402759</v>
+        <v>1.678529051768372</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.366166500393831</v>
+        <v>0.4603718588252264</v>
       </c>
       <c r="C12">
-        <v>0.2401106692538804</v>
+        <v>0.07220767158291608</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5642601980505901</v>
+        <v>0.4596397814100541</v>
       </c>
       <c r="F12">
-        <v>2.310842961865603</v>
+        <v>2.462954938686309</v>
       </c>
       <c r="G12">
-        <v>0.6338241663913635</v>
+        <v>0.8098137509377921</v>
       </c>
       <c r="H12">
-        <v>0.4248344816142833</v>
+        <v>0.8654046406870748</v>
       </c>
       <c r="I12">
-        <v>0.3655782023279244</v>
+        <v>0.6896403081341447</v>
       </c>
       <c r="J12">
-        <v>0.02301946445704495</v>
+        <v>0.05919079775352021</v>
       </c>
       <c r="K12">
-        <v>1.527845112096713</v>
+        <v>0.4992650417525795</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.009994686002365</v>
+        <v>0.5122944988203812</v>
       </c>
       <c r="N12">
-        <v>0.6393462291914513</v>
+        <v>1.673772541605373</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.358645335499091</v>
+        <v>0.4582513051511512</v>
       </c>
       <c r="C13">
-        <v>0.238760545076218</v>
+        <v>0.07183890597964648</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5614066975293284</v>
+        <v>0.4590298253986589</v>
       </c>
       <c r="F13">
-        <v>2.301017843245347</v>
+        <v>2.461349164943286</v>
       </c>
       <c r="G13">
-        <v>0.6318963954023786</v>
+        <v>0.8096879971232624</v>
       </c>
       <c r="H13">
-        <v>0.4243450855754958</v>
+        <v>0.8655759552585209</v>
       </c>
       <c r="I13">
-        <v>0.3652012163354073</v>
+        <v>0.6898140532718031</v>
       </c>
       <c r="J13">
-        <v>0.02309032108043763</v>
+        <v>0.0592198171070879</v>
       </c>
       <c r="K13">
-        <v>1.519395462744114</v>
+        <v>0.49689806618494</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.004465352125827</v>
+        <v>0.5109180261350019</v>
       </c>
       <c r="N13">
-        <v>0.6418232255614846</v>
+        <v>1.674792968913936</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.334140973121237</v>
+        <v>0.4513371431926316</v>
       </c>
       <c r="C14">
-        <v>0.234364148519802</v>
+        <v>0.07063639247380138</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.552120224693212</v>
+        <v>0.4570454152140684</v>
       </c>
       <c r="F14">
-        <v>2.269098672658458</v>
+        <v>2.456144685793802</v>
       </c>
       <c r="G14">
-        <v>0.6256620477532522</v>
+        <v>0.809291123723284</v>
       </c>
       <c r="H14">
-        <v>0.4227770130991502</v>
+        <v>0.8661444371042961</v>
       </c>
       <c r="I14">
-        <v>0.3640013353690108</v>
+        <v>0.6903899193934393</v>
       </c>
       <c r="J14">
-        <v>0.02332236471896421</v>
+        <v>0.05931488834293797</v>
       </c>
       <c r="K14">
-        <v>1.491869034169383</v>
+        <v>0.4891802358694122</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9864609734881924</v>
+        <v>0.5064338661674128</v>
       </c>
       <c r="N14">
-        <v>0.6499426812885769</v>
+        <v>1.678135941003887</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.319149244193085</v>
+        <v>0.447103120224682</v>
       </c>
       <c r="C15">
-        <v>0.2316762328207886</v>
+        <v>0.06989990373199362</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5464466748076688</v>
+        <v>0.4558335877780806</v>
       </c>
       <c r="F15">
-        <v>2.249640247796293</v>
+        <v>2.452981609335581</v>
       </c>
       <c r="G15">
-        <v>0.621883198128387</v>
+        <v>0.8090581954988778</v>
       </c>
       <c r="H15">
-        <v>0.4218377811184411</v>
+        <v>0.8665001696681429</v>
       </c>
       <c r="I15">
-        <v>0.3632888408490729</v>
+        <v>0.6907497571526378</v>
       </c>
       <c r="J15">
-        <v>0.02346523551186142</v>
+        <v>0.0593734548211069</v>
       </c>
       <c r="K15">
-        <v>1.475030658936959</v>
+        <v>0.4844539167183655</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.975453894237944</v>
+        <v>0.5036908927839008</v>
       </c>
       <c r="N15">
-        <v>0.6549476791437812</v>
+        <v>1.680195237221193</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.23349668628876</v>
+        <v>0.4228567794415881</v>
       </c>
       <c r="C16">
-        <v>0.2163452496021705</v>
+        <v>0.0656806949900357</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5141494563882603</v>
+        <v>0.4489455651631644</v>
       </c>
       <c r="F16">
-        <v>2.139505529458248</v>
+        <v>2.435235633381282</v>
       </c>
       <c r="G16">
-        <v>0.6008190619053835</v>
+        <v>0.8078790862478797</v>
       </c>
       <c r="H16">
-        <v>0.4167722357242809</v>
+        <v>0.8686540020214579</v>
       </c>
       <c r="I16">
-        <v>0.3595404293666888</v>
+        <v>0.6929206619712005</v>
       </c>
       <c r="J16">
-        <v>0.02429511052643329</v>
+        <v>0.05971417426365244</v>
       </c>
       <c r="K16">
-        <v>1.378860187622081</v>
+        <v>0.457385994471764</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9126852448994569</v>
+        <v>0.4880289138730589</v>
       </c>
       <c r="N16">
-        <v>0.6841038689516328</v>
+        <v>1.692174388671097</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.181166453284078</v>
+        <v>0.4079980053409997</v>
       </c>
       <c r="C17">
-        <v>0.207000212114167</v>
+        <v>0.06309351645221284</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4945185812549155</v>
+        <v>0.444770429652813</v>
       </c>
       <c r="F17">
-        <v>2.073112684492742</v>
+        <v>2.424688384281239</v>
       </c>
       <c r="G17">
-        <v>0.5884028970271657</v>
+        <v>0.807294527347139</v>
       </c>
       <c r="H17">
-        <v>0.4139378682876611</v>
+        <v>0.8700781644329254</v>
       </c>
       <c r="I17">
-        <v>0.3575291636226865</v>
+        <v>0.6943494879443719</v>
       </c>
       <c r="J17">
-        <v>0.0248139820359734</v>
+        <v>0.05992774504347542</v>
       </c>
       <c r="K17">
-        <v>1.320131042493131</v>
+        <v>0.4407958532716236</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8744378428636495</v>
+        <v>0.4784716930841313</v>
       </c>
       <c r="N17">
-        <v>0.7024034391068721</v>
+        <v>1.69968208841223</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.151140183706701</v>
+        <v>0.399457465617246</v>
       </c>
       <c r="C18">
-        <v>0.2016455030553175</v>
+        <v>0.06160586952783831</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4832906322821486</v>
+        <v>0.4423875611330317</v>
       </c>
       <c r="F18">
-        <v>2.035334743248441</v>
+        <v>2.418746569784105</v>
       </c>
       <c r="G18">
-        <v>0.5814392045453332</v>
+        <v>0.8070092466756904</v>
       </c>
       <c r="H18">
-        <v>0.4124043447298646</v>
+        <v>0.8709351026973309</v>
       </c>
       <c r="I18">
-        <v>0.356474300721807</v>
+        <v>0.6952069528407634</v>
       </c>
       <c r="J18">
-        <v>0.02511594802895978</v>
+        <v>0.0600522579162881</v>
       </c>
       <c r="K18">
-        <v>1.286442393858209</v>
+        <v>0.4312593099379001</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8525279802845986</v>
+        <v>0.4729933879639887</v>
       </c>
       <c r="N18">
-        <v>0.7130767574517947</v>
+        <v>1.704058668769843</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.14098571405475</v>
+        <v>0.3965667982567425</v>
       </c>
       <c r="C19">
-        <v>0.199835817937867</v>
+        <v>0.06110225164970018</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4794995460287836</v>
+        <v>0.4415839523409986</v>
       </c>
       <c r="F19">
-        <v>2.022612177676876</v>
+        <v>2.416756186316903</v>
       </c>
       <c r="G19">
-        <v>0.5791111923780505</v>
+        <v>0.8069213990872157</v>
       </c>
       <c r="H19">
-        <v>0.411901395795951</v>
+        <v>0.8712317389308311</v>
       </c>
       <c r="I19">
-        <v>0.3561342883834939</v>
+        <v>0.6955033951734464</v>
       </c>
       <c r="J19">
-        <v>0.02521878786921583</v>
+        <v>0.06009470314084409</v>
       </c>
       <c r="K19">
-        <v>1.275050872855672</v>
+        <v>0.4280313829113425</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8451243979677656</v>
+        <v>0.4711417541305138</v>
       </c>
       <c r="N19">
-        <v>0.7167155949706423</v>
+        <v>1.705550521867458</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.186729434066564</v>
+        <v>0.4095791459241696</v>
       </c>
       <c r="C20">
-        <v>0.2079928668322708</v>
+        <v>0.06336888154770293</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4966016949069285</v>
+        <v>0.4452129596490266</v>
       </c>
       <c r="F20">
-        <v>2.080137475507854</v>
+        <v>2.42579825216815</v>
       </c>
       <c r="G20">
-        <v>0.5897060408414916</v>
+        <v>0.8073514809328799</v>
       </c>
       <c r="H20">
-        <v>0.4142294995305065</v>
+        <v>0.8699226479564146</v>
       </c>
       <c r="I20">
-        <v>0.3577326256979418</v>
+        <v>0.6941936976679273</v>
       </c>
       <c r="J20">
-        <v>0.02475838102335404</v>
+        <v>0.05990483696822002</v>
       </c>
       <c r="K20">
-        <v>1.326373290353331</v>
+        <v>0.442561317826403</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.878499992987976</v>
+        <v>0.4794871355882435</v>
       </c>
       <c r="N20">
-        <v>0.7004400252378638</v>
+        <v>1.698876841110897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.341334730392134</v>
+        <v>0.4533677713621103</v>
       </c>
       <c r="C21">
-        <v>0.235654423348393</v>
+        <v>0.07098958202080041</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5548448039394245</v>
+        <v>0.4576275175677722</v>
       </c>
       <c r="F21">
-        <v>2.278454602214964</v>
+        <v>2.457668195466525</v>
       </c>
       <c r="G21">
-        <v>0.6274848691769961</v>
+        <v>0.8094055756774736</v>
       </c>
       <c r="H21">
-        <v>0.4232331419674438</v>
+        <v>0.8659758928226609</v>
       </c>
       <c r="I21">
-        <v>0.3643490635935223</v>
+        <v>0.6902192931440041</v>
       </c>
       <c r="J21">
-        <v>0.02325405381807322</v>
+        <v>0.05928689430425349</v>
       </c>
       <c r="K21">
-        <v>1.499949507444342</v>
+        <v>0.4914469262835723</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9917448567597305</v>
+        <v>0.5077502010072692</v>
       </c>
       <c r="N21">
-        <v>0.6475511919114503</v>
+        <v>1.677151605321274</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.443162311280901</v>
+        <v>0.4820357431484013</v>
       </c>
       <c r="C22">
-        <v>0.2539520336278827</v>
+        <v>0.07597397721376353</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5935567377848798</v>
+        <v>0.4659059633547429</v>
       </c>
       <c r="F22">
-        <v>2.412170945122938</v>
+        <v>2.47960775713527</v>
       </c>
       <c r="G22">
-        <v>0.6539375229664302</v>
+        <v>0.8112029843327235</v>
       </c>
       <c r="H22">
-        <v>0.4300589709068703</v>
+        <v>0.8637330789314319</v>
       </c>
       <c r="I22">
-        <v>0.3696680125470593</v>
+        <v>0.6879396497107493</v>
       </c>
       <c r="J22">
-        <v>0.02230371219372618</v>
+        <v>0.05889792041081643</v>
       </c>
       <c r="K22">
-        <v>1.614370899042797</v>
+        <v>0.5234448667007712</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.066685359664874</v>
+        <v>0.5263876719334775</v>
       </c>
       <c r="N22">
-        <v>0.6143886616809109</v>
+        <v>1.663473306422752</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.3887363279336</v>
+        <v>0.4667306861827001</v>
       </c>
       <c r="C23">
-        <v>0.2441642446167265</v>
+        <v>0.07331336151290202</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5728320104985087</v>
+        <v>0.4614725422816548</v>
       </c>
       <c r="F23">
-        <v>2.340405139389247</v>
+        <v>2.467796549716951</v>
       </c>
       <c r="G23">
-        <v>0.6396489286657641</v>
+        <v>0.810201983314002</v>
       </c>
       <c r="H23">
-        <v>0.4263256914795903</v>
+        <v>0.8648993084353691</v>
       </c>
       <c r="I23">
-        <v>0.3667337720517025</v>
+        <v>0.6891272311835479</v>
       </c>
       <c r="J23">
-        <v>0.02280785118160011</v>
+        <v>0.05910416123046325</v>
       </c>
       <c r="K23">
-        <v>1.55320376521172</v>
+        <v>0.5063626393242089</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.026596351241267</v>
+        <v>0.5164253737272446</v>
       </c>
       <c r="N23">
-        <v>0.6319553333350534</v>
+        <v>1.670726016179605</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.184214227912037</v>
+        <v>0.408864306112406</v>
       </c>
       <c r="C24">
-        <v>0.2075440323617102</v>
+        <v>0.06324438974796465</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4956597391499713</v>
+        <v>0.4450128374078588</v>
       </c>
       <c r="F24">
-        <v>2.076960350844246</v>
+        <v>2.425296101062685</v>
       </c>
       <c r="G24">
-        <v>0.589116347844481</v>
+        <v>0.8073255740206662</v>
       </c>
       <c r="H24">
-        <v>0.4140973549150999</v>
+        <v>0.8699928380598578</v>
       </c>
       <c r="I24">
-        <v>0.3576403254649136</v>
+        <v>0.6942640182737492</v>
       </c>
       <c r="J24">
-        <v>0.02478350685699793</v>
+        <v>0.05991518832571474</v>
       </c>
       <c r="K24">
-        <v>1.323550936708926</v>
+        <v>0.4417631470748518</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8766632500654978</v>
+        <v>0.4790280033465706</v>
       </c>
       <c r="N24">
-        <v>0.7013272101047612</v>
+        <v>1.699240705574642</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9663156059153266</v>
+        <v>0.3466702736020295</v>
       </c>
       <c r="C25">
-        <v>0.168801079225247</v>
+        <v>0.05239976291805704</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4147926942640794</v>
+        <v>0.4279681185829816</v>
       </c>
       <c r="F25">
-        <v>1.808222403421212</v>
+        <v>2.384218919261585</v>
       </c>
       <c r="G25">
-        <v>0.5413165837038321</v>
+        <v>0.8061697004587103</v>
       </c>
       <c r="H25">
-        <v>0.4045659300892908</v>
+        <v>0.8769320978285293</v>
       </c>
       <c r="I25">
-        <v>0.3516870369686522</v>
+        <v>0.7011672590320011</v>
       </c>
       <c r="J25">
-        <v>0.0270486357789026</v>
+        <v>0.06085396643927465</v>
       </c>
       <c r="K25">
-        <v>1.079220569260656</v>
+        <v>0.3722997801232566</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7182734171945526</v>
+        <v>0.4394064287587582</v>
       </c>
       <c r="N25">
-        <v>0.7817678072760721</v>
+        <v>1.732228884512683</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.301071449564887</v>
+        <v>0.807515183129766</v>
       </c>
       <c r="C2">
-        <v>0.04442704824161581</v>
+        <v>0.1407376848509614</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4160274979489884</v>
+        <v>0.3568792855821741</v>
       </c>
       <c r="F2">
-        <v>2.358060693081583</v>
+        <v>1.621375659616319</v>
       </c>
       <c r="G2">
-        <v>0.8069844721067341</v>
+        <v>0.51101968080566</v>
       </c>
       <c r="H2">
-        <v>0.883284444334052</v>
+        <v>0.4003072975081921</v>
       </c>
       <c r="I2">
-        <v>0.7074196399734234</v>
+        <v>0.3501994248992126</v>
       </c>
       <c r="J2">
-        <v>0.06160035768159844</v>
+        <v>0.02882519724908783</v>
       </c>
       <c r="K2">
-        <v>0.3213400753073756</v>
+        <v>0.901373927207004</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.410848662624403</v>
+        <v>0.6038451993470488</v>
       </c>
       <c r="N2">
-        <v>1.75843662132662</v>
+        <v>0.8454184968794465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2702915342972858</v>
+        <v>0.7006034418670879</v>
       </c>
       <c r="C3">
-        <v>0.03903058097564838</v>
+        <v>0.1219232597034363</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4083150742256478</v>
+        <v>0.3184608511944376</v>
       </c>
       <c r="F3">
-        <v>2.342876940250164</v>
+        <v>1.500613008197348</v>
       </c>
       <c r="G3">
-        <v>0.8085717031098625</v>
+        <v>0.4931486674480539</v>
       </c>
       <c r="H3">
-        <v>0.8883650480969862</v>
+        <v>0.3989674614440588</v>
       </c>
       <c r="I3">
-        <v>0.7123854761517876</v>
+        <v>0.3508073322298237</v>
       </c>
       <c r="J3">
-        <v>0.06214069376210807</v>
+        <v>0.0300940758606385</v>
       </c>
       <c r="K3">
-        <v>0.2869203827925446</v>
+        <v>0.7817394875351056</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.391878410712664</v>
+        <v>0.5273606339826031</v>
       </c>
       <c r="N3">
-        <v>1.777394830047317</v>
+        <v>0.8911312974463552</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2514541555025005</v>
+        <v>0.6352149730386429</v>
       </c>
       <c r="C4">
-        <v>0.03572023839339522</v>
+        <v>0.110446688621451</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4037670655084185</v>
+        <v>0.2952252687637866</v>
       </c>
       <c r="F4">
-        <v>2.334807663926497</v>
+        <v>1.429051251360519</v>
       </c>
       <c r="G4">
-        <v>0.8100555676451648</v>
+        <v>0.4833688075598417</v>
       </c>
       <c r="H4">
-        <v>0.8918672087951762</v>
+        <v>0.398854299438824</v>
       </c>
       <c r="I4">
-        <v>0.7157935636849366</v>
+        <v>0.351919685303983</v>
       </c>
       <c r="J4">
-        <v>0.0624895045906313</v>
+        <v>0.03090426994180895</v>
       </c>
       <c r="K4">
-        <v>0.2658444808655958</v>
+        <v>0.7086083361732278</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3804200679449821</v>
+        <v>0.4808325432264837</v>
       </c>
       <c r="N4">
-        <v>1.789625611394847</v>
+        <v>0.9204138720776385</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2437935776282529</v>
+        <v>0.6086203003711717</v>
       </c>
       <c r="C5">
-        <v>0.03437202587360844</v>
+        <v>0.1057854544769583</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4019609195103087</v>
+        <v>0.2858378287763799</v>
       </c>
       <c r="F5">
-        <v>2.33183460567561</v>
+        <v>1.400497512612318</v>
       </c>
       <c r="G5">
-        <v>0.8107881711458447</v>
+        <v>0.4796667271079258</v>
       </c>
       <c r="H5">
-        <v>0.8933906119795836</v>
+        <v>0.3989791645006591</v>
       </c>
       <c r="I5">
-        <v>0.7172726317261571</v>
+        <v>0.3525506967282013</v>
       </c>
       <c r="J5">
-        <v>0.06263593587951366</v>
+        <v>0.03124211906264063</v>
       </c>
       <c r="K5">
-        <v>0.2572707174848574</v>
+        <v>0.6788727943864359</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3757984925437299</v>
+        <v>0.4619686082939651</v>
       </c>
       <c r="N5">
-        <v>1.794758158173848</v>
+        <v>0.9326442188506263</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2425225084711542</v>
+        <v>0.6042070391011123</v>
       </c>
       <c r="C6">
-        <v>0.03414820318040768</v>
+        <v>0.1050123033881789</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4016638634114074</v>
+        <v>0.2842837436533472</v>
       </c>
       <c r="F6">
-        <v>2.331359971492702</v>
+        <v>1.39579173182743</v>
       </c>
       <c r="G6">
-        <v>0.8109175408621638</v>
+        <v>0.4790686380965781</v>
       </c>
       <c r="H6">
-        <v>0.8936493855584189</v>
+        <v>0.3990100152885887</v>
       </c>
       <c r="I6">
-        <v>0.7175236792530519</v>
+        <v>0.3526659796800899</v>
       </c>
       <c r="J6">
-        <v>0.06266050974849868</v>
+        <v>0.03129867931030961</v>
       </c>
       <c r="K6">
-        <v>0.2558479547944472</v>
+        <v>0.6739387746656575</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3750339744168656</v>
+        <v>0.4588417532153599</v>
       </c>
       <c r="N6">
-        <v>1.795619375541483</v>
+        <v>0.9346927989055605</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2513507778513713</v>
+        <v>0.634856115022103</v>
       </c>
       <c r="C7">
-        <v>0.0357020527782197</v>
+        <v>0.1103837669739107</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4037425159717785</v>
+        <v>0.2950983472735942</v>
       </c>
       <c r="F7">
-        <v>2.33476629183258</v>
+        <v>1.428663757000862</v>
       </c>
       <c r="G7">
-        <v>0.8100649300636604</v>
+        <v>0.4833177543946334</v>
       </c>
       <c r="H7">
-        <v>0.8918873642237202</v>
+        <v>0.3988553006506663</v>
       </c>
       <c r="I7">
-        <v>0.7158131455705465</v>
+        <v>0.3519274862068755</v>
       </c>
       <c r="J7">
-        <v>0.06249146204863809</v>
+        <v>0.03090879533111823</v>
       </c>
       <c r="K7">
-        <v>0.2657287916562581</v>
+        <v>0.7082070651344878</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3803575460558193</v>
+        <v>0.4805777622242289</v>
       </c>
       <c r="N7">
-        <v>1.789694229899205</v>
+        <v>0.9205776206490999</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2904459252202685</v>
+        <v>0.7705910546026189</v>
       </c>
       <c r="C8">
-        <v>0.04256569727083104</v>
+        <v>0.1342326478765727</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4133293865643211</v>
+        <v>0.3435544954053071</v>
       </c>
       <c r="F8">
-        <v>2.352565141102701</v>
+        <v>1.579173558113993</v>
       </c>
       <c r="G8">
-        <v>0.8074259518584199</v>
+        <v>0.5045998075156319</v>
       </c>
       <c r="H8">
-        <v>0.884956831251074</v>
+        <v>0.3996934649593271</v>
       </c>
       <c r="I8">
-        <v>0.7090573162431468</v>
+        <v>0.3502506026442838</v>
       </c>
       <c r="J8">
-        <v>0.0617831300622429</v>
+        <v>0.02925617134183667</v>
       </c>
       <c r="K8">
-        <v>0.3094602940846016</v>
+        <v>0.8600467787012178</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4042684780679693</v>
+        <v>0.5773755733103982</v>
       </c>
       <c r="N8">
-        <v>1.764850854474215</v>
+        <v>0.8609232153120807</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3675904135866119</v>
+        <v>1.03941675572861</v>
       </c>
       <c r="C9">
-        <v>0.05605078817680464</v>
+        <v>0.1817678797020079</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4336149587925817</v>
+        <v>0.4417536757459786</v>
       </c>
       <c r="F9">
-        <v>2.397420240683417</v>
+        <v>1.896892377249102</v>
       </c>
       <c r="G9">
-        <v>0.8062997337750062</v>
+        <v>0.5566018417909504</v>
       </c>
       <c r="H9">
-        <v>0.8744015272511234</v>
+        <v>0.4073233721616987</v>
       </c>
       <c r="I9">
-        <v>0.6986600720804503</v>
+        <v>0.3532158669165</v>
       </c>
       <c r="J9">
-        <v>0.0605291779554884</v>
+        <v>0.026268313036514</v>
       </c>
       <c r="K9">
-        <v>0.3956697446272415</v>
+        <v>1.161150308146063</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4526573554894284</v>
+        <v>0.7712437287219842</v>
       </c>
       <c r="N9">
-        <v>1.720818728315653</v>
+        <v>0.7539585629967345</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4245530513908875</v>
+        <v>1.239478227993516</v>
       </c>
       <c r="C10">
-        <v>0.06597596829398356</v>
+        <v>0.2174144603612689</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4494244904391991</v>
+        <v>0.516398314785846</v>
       </c>
       <c r="F10">
-        <v>2.436456044401567</v>
+        <v>2.147138397779173</v>
       </c>
       <c r="G10">
-        <v>0.8079526957581606</v>
+        <v>0.602260505673982</v>
       </c>
       <c r="H10">
-        <v>0.8684966170006305</v>
+        <v>0.417109025967747</v>
       </c>
       <c r="I10">
-        <v>0.6927624541932502</v>
+        <v>0.3597840293998047</v>
       </c>
       <c r="J10">
-        <v>0.05969003097064629</v>
+        <v>0.02423638599620892</v>
       </c>
       <c r="K10">
-        <v>0.4592798057854282</v>
+        <v>1.385574453882384</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.489121996974653</v>
+        <v>0.9170620467736512</v>
       </c>
       <c r="N10">
-        <v>1.691325617192485</v>
+        <v>0.6820360832688017</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4505274028913959</v>
+        <v>1.331273046897451</v>
       </c>
       <c r="C11">
-        <v>0.07049554821148263</v>
+        <v>0.233849843602485</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.456813458335013</v>
+        <v>0.551034405370757</v>
       </c>
       <c r="F11">
-        <v>2.455538336786262</v>
+        <v>2.265372154245583</v>
       </c>
       <c r="G11">
-        <v>0.8092459777209058</v>
+        <v>0.6249370682826481</v>
       </c>
       <c r="H11">
-        <v>0.8662120179613737</v>
+        <v>0.4225961499154778</v>
       </c>
       <c r="I11">
-        <v>0.6904583101158508</v>
+        <v>0.3638637602121122</v>
       </c>
       <c r="J11">
-        <v>0.05932606831744769</v>
+        <v>0.02334964238787141</v>
       </c>
       <c r="K11">
-        <v>0.4882763550435811</v>
+        <v>1.488647711556808</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5059091058963006</v>
+        <v>0.9843548430574458</v>
       </c>
       <c r="N11">
-        <v>1.678529051768372</v>
+        <v>0.650897924140315</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4603718588252264</v>
+        <v>1.366166500393973</v>
       </c>
       <c r="C12">
-        <v>0.07220767158291608</v>
+        <v>0.2401106692541077</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4596397814100541</v>
+        <v>0.5642601980505901</v>
       </c>
       <c r="F12">
-        <v>2.462954938686309</v>
+        <v>2.310842961865603</v>
       </c>
       <c r="G12">
-        <v>0.8098137509377921</v>
+        <v>0.6338241663913493</v>
       </c>
       <c r="H12">
-        <v>0.8654046406870748</v>
+        <v>0.4248344816142833</v>
       </c>
       <c r="I12">
-        <v>0.6896403081341447</v>
+        <v>0.3655782023279457</v>
       </c>
       <c r="J12">
-        <v>0.05919079775352021</v>
+        <v>0.02301946445693659</v>
       </c>
       <c r="K12">
-        <v>0.4992650417525795</v>
+        <v>1.527845112096827</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5122944988203812</v>
+        <v>1.009994686002379</v>
       </c>
       <c r="N12">
-        <v>1.673772541605373</v>
+        <v>0.6393462291914496</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4582513051511512</v>
+        <v>1.358645335499062</v>
       </c>
       <c r="C13">
-        <v>0.07183890597964648</v>
+        <v>0.2387605450762038</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4590298253986589</v>
+        <v>0.5614066975293497</v>
       </c>
       <c r="F13">
-        <v>2.461349164943286</v>
+        <v>2.301017843245361</v>
       </c>
       <c r="G13">
-        <v>0.8096879971232624</v>
+        <v>0.6318963954023218</v>
       </c>
       <c r="H13">
-        <v>0.8655759552585209</v>
+        <v>0.4243450855754958</v>
       </c>
       <c r="I13">
-        <v>0.6898140532718031</v>
+        <v>0.3652012163354073</v>
       </c>
       <c r="J13">
-        <v>0.0592198171070879</v>
+        <v>0.02309032108043318</v>
       </c>
       <c r="K13">
-        <v>0.49689806618494</v>
+        <v>1.519395462744171</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5109180261350019</v>
+        <v>1.004465352125827</v>
       </c>
       <c r="N13">
-        <v>1.674792968913936</v>
+        <v>0.6418232255614811</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4513371431926316</v>
+        <v>1.334140973121151</v>
       </c>
       <c r="C14">
-        <v>0.07063639247380138</v>
+        <v>0.2343641485201431</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4570454152140684</v>
+        <v>0.5521202246932404</v>
       </c>
       <c r="F14">
-        <v>2.456144685793802</v>
+        <v>2.269098672658458</v>
       </c>
       <c r="G14">
-        <v>0.809291123723284</v>
+        <v>0.6256620477532095</v>
       </c>
       <c r="H14">
-        <v>0.8661444371042961</v>
+        <v>0.4227770130990365</v>
       </c>
       <c r="I14">
-        <v>0.6903899193934393</v>
+        <v>0.3640013353690037</v>
       </c>
       <c r="J14">
-        <v>0.05931488834293797</v>
+        <v>0.02332236471901705</v>
       </c>
       <c r="K14">
-        <v>0.4891802358694122</v>
+        <v>1.491869034169412</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5064338661674128</v>
+        <v>0.9864609734881924</v>
       </c>
       <c r="N14">
-        <v>1.678135941003887</v>
+        <v>0.6499426812885609</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.447103120224682</v>
+        <v>1.319149244193085</v>
       </c>
       <c r="C15">
-        <v>0.06989990373199362</v>
+        <v>0.2316762328210302</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4558335877780806</v>
+        <v>0.5464466748076688</v>
       </c>
       <c r="F15">
-        <v>2.452981609335581</v>
+        <v>2.249640247796307</v>
       </c>
       <c r="G15">
-        <v>0.8090581954988778</v>
+        <v>0.621883198128387</v>
       </c>
       <c r="H15">
-        <v>0.8665001696681429</v>
+        <v>0.4218377811184268</v>
       </c>
       <c r="I15">
-        <v>0.6907497571526378</v>
+        <v>0.3632888408490729</v>
       </c>
       <c r="J15">
-        <v>0.0593734548211069</v>
+        <v>0.02346523551197288</v>
       </c>
       <c r="K15">
-        <v>0.4844539167183655</v>
+        <v>1.475030658936959</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5036908927839008</v>
+        <v>0.9754538942379583</v>
       </c>
       <c r="N15">
-        <v>1.680195237221193</v>
+        <v>0.6549476791437669</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4228567794415881</v>
+        <v>1.233496686288618</v>
       </c>
       <c r="C16">
-        <v>0.0656806949900357</v>
+        <v>0.2163452496020994</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4489455651631644</v>
+        <v>0.5141494563882958</v>
       </c>
       <c r="F16">
-        <v>2.435235633381282</v>
+        <v>2.139505529458248</v>
       </c>
       <c r="G16">
-        <v>0.8078790862478797</v>
+        <v>0.6008190619053835</v>
       </c>
       <c r="H16">
-        <v>0.8686540020214579</v>
+        <v>0.4167722357242809</v>
       </c>
       <c r="I16">
-        <v>0.6929206619712005</v>
+        <v>0.3595404293666959</v>
       </c>
       <c r="J16">
-        <v>0.05971417426365244</v>
+        <v>0.02429511052648792</v>
       </c>
       <c r="K16">
-        <v>0.457385994471764</v>
+        <v>1.37886018762191</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4880289138730589</v>
+        <v>0.9126852448994498</v>
       </c>
       <c r="N16">
-        <v>1.692174388671097</v>
+        <v>0.6841038689516346</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4079980053409997</v>
+        <v>1.181166453284021</v>
       </c>
       <c r="C17">
-        <v>0.06309351645221284</v>
+        <v>0.207000212114508</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.444770429652813</v>
+        <v>0.4945185812549298</v>
       </c>
       <c r="F17">
-        <v>2.424688384281239</v>
+        <v>2.073112684492742</v>
       </c>
       <c r="G17">
-        <v>0.807294527347139</v>
+        <v>0.5884028970271231</v>
       </c>
       <c r="H17">
-        <v>0.8700781644329254</v>
+        <v>0.413937868287789</v>
       </c>
       <c r="I17">
-        <v>0.6943494879443719</v>
+        <v>0.3575291636227078</v>
       </c>
       <c r="J17">
-        <v>0.05992774504347542</v>
+        <v>0.02481398203597784</v>
       </c>
       <c r="K17">
-        <v>0.4407958532716236</v>
+        <v>1.320131042492989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4784716930841313</v>
+        <v>0.8744378428636495</v>
       </c>
       <c r="N17">
-        <v>1.69968208841223</v>
+        <v>0.702403439106897</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.399457465617246</v>
+        <v>1.151140183706616</v>
       </c>
       <c r="C18">
-        <v>0.06160586952783831</v>
+        <v>0.2016455030556159</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4423875611330317</v>
+        <v>0.4832906322821202</v>
       </c>
       <c r="F18">
-        <v>2.418746569784105</v>
+        <v>2.035334743248498</v>
       </c>
       <c r="G18">
-        <v>0.8070092466756904</v>
+        <v>0.5814392045453758</v>
       </c>
       <c r="H18">
-        <v>0.8709351026973309</v>
+        <v>0.4124043447298504</v>
       </c>
       <c r="I18">
-        <v>0.6952069528407634</v>
+        <v>0.356474300721807</v>
       </c>
       <c r="J18">
-        <v>0.0600522579162881</v>
+        <v>0.02511594802890382</v>
       </c>
       <c r="K18">
-        <v>0.4312593099379001</v>
+        <v>1.286442393858067</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4729933879639887</v>
+        <v>0.8525279802846057</v>
       </c>
       <c r="N18">
-        <v>1.704058668769843</v>
+        <v>0.7130767574517893</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3965667982567425</v>
+        <v>1.140985714054892</v>
       </c>
       <c r="C19">
-        <v>0.06110225164970018</v>
+        <v>0.1998358179381938</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4415839523409986</v>
+        <v>0.4794995460287623</v>
       </c>
       <c r="F19">
-        <v>2.416756186316903</v>
+        <v>2.022612177676862</v>
       </c>
       <c r="G19">
-        <v>0.8069213990872157</v>
+        <v>0.5791111923780932</v>
       </c>
       <c r="H19">
-        <v>0.8712317389308311</v>
+        <v>0.411901395795951</v>
       </c>
       <c r="I19">
-        <v>0.6955033951734464</v>
+        <v>0.3561342883834868</v>
       </c>
       <c r="J19">
-        <v>0.06009470314084409</v>
+        <v>0.02521878786920606</v>
       </c>
       <c r="K19">
-        <v>0.4280313829113425</v>
+        <v>1.275050872855672</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4711417541305138</v>
+        <v>0.8451243979677514</v>
       </c>
       <c r="N19">
-        <v>1.705550521867458</v>
+        <v>0.7167155949706867</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4095791459241696</v>
+        <v>1.18672943406645</v>
       </c>
       <c r="C20">
-        <v>0.06336888154770293</v>
+        <v>0.2079928668317024</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4452129596490266</v>
+        <v>0.4966016949069072</v>
       </c>
       <c r="F20">
-        <v>2.42579825216815</v>
+        <v>2.080137475507868</v>
       </c>
       <c r="G20">
-        <v>0.8073514809328799</v>
+        <v>0.58970604084152</v>
       </c>
       <c r="H20">
-        <v>0.8699226479564146</v>
+        <v>0.4142294995306202</v>
       </c>
       <c r="I20">
-        <v>0.6941936976679273</v>
+        <v>0.3577326256979489</v>
       </c>
       <c r="J20">
-        <v>0.05990483696822002</v>
+        <v>0.02475838102345262</v>
       </c>
       <c r="K20">
-        <v>0.442561317826403</v>
+        <v>1.326373290353473</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4794871355882435</v>
+        <v>0.878499992987976</v>
       </c>
       <c r="N20">
-        <v>1.698876841110897</v>
+        <v>0.7004400252378495</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4533677713621103</v>
+        <v>1.341334730391964</v>
       </c>
       <c r="C21">
-        <v>0.07098958202080041</v>
+        <v>0.2356544233486062</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4576275175677722</v>
+        <v>0.5548448039394245</v>
       </c>
       <c r="F21">
-        <v>2.457668195466525</v>
+        <v>2.278454602214964</v>
       </c>
       <c r="G21">
-        <v>0.8094055756774736</v>
+        <v>0.6274848691769819</v>
       </c>
       <c r="H21">
-        <v>0.8659758928226609</v>
+        <v>0.423233141967458</v>
       </c>
       <c r="I21">
-        <v>0.6902192931440041</v>
+        <v>0.3643490635935365</v>
       </c>
       <c r="J21">
-        <v>0.05928689430425349</v>
+        <v>0.02325405381800616</v>
       </c>
       <c r="K21">
-        <v>0.4914469262835723</v>
+        <v>1.499949507444313</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5077502010072692</v>
+        <v>0.9917448567597447</v>
       </c>
       <c r="N21">
-        <v>1.677151605321274</v>
+        <v>0.6475511919114432</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4820357431484013</v>
+        <v>1.443162311280759</v>
       </c>
       <c r="C22">
-        <v>0.07597397721376353</v>
+        <v>0.2539520336276411</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4659059633547429</v>
+        <v>0.5935567377848514</v>
       </c>
       <c r="F22">
-        <v>2.47960775713527</v>
+        <v>2.412170945122909</v>
       </c>
       <c r="G22">
-        <v>0.8112029843327235</v>
+        <v>0.6539375229664444</v>
       </c>
       <c r="H22">
-        <v>0.8637330789314319</v>
+        <v>0.4300589709068419</v>
       </c>
       <c r="I22">
-        <v>0.6879396497107493</v>
+        <v>0.3696680125470664</v>
       </c>
       <c r="J22">
-        <v>0.05889792041081643</v>
+        <v>0.02230371219366045</v>
       </c>
       <c r="K22">
-        <v>0.5234448667007712</v>
+        <v>1.61437089904274</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5263876719334775</v>
+        <v>1.066685359664866</v>
       </c>
       <c r="N22">
-        <v>1.663473306422752</v>
+        <v>0.6143886616808931</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4667306861827001</v>
+        <v>1.388736327933572</v>
       </c>
       <c r="C23">
-        <v>0.07331336151290202</v>
+        <v>0.2441642446166412</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4614725422816548</v>
+        <v>0.5728320104985087</v>
       </c>
       <c r="F23">
-        <v>2.467796549716951</v>
+        <v>2.340405139389247</v>
       </c>
       <c r="G23">
-        <v>0.810201983314002</v>
+        <v>0.6396489286657498</v>
       </c>
       <c r="H23">
-        <v>0.8648993084353691</v>
+        <v>0.426325691479704</v>
       </c>
       <c r="I23">
-        <v>0.6891272311835479</v>
+        <v>0.3667337720516954</v>
       </c>
       <c r="J23">
-        <v>0.05910416123046325</v>
+        <v>0.02280785118159789</v>
       </c>
       <c r="K23">
-        <v>0.5063626393242089</v>
+        <v>1.553203765211606</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5164253737272446</v>
+        <v>1.02659635124126</v>
       </c>
       <c r="N23">
-        <v>1.670726016179605</v>
+        <v>0.6319553333350516</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.408864306112406</v>
+        <v>1.184214227912122</v>
       </c>
       <c r="C24">
-        <v>0.06324438974796465</v>
+        <v>0.2075440323616959</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4450128374078588</v>
+        <v>0.4956597391499642</v>
       </c>
       <c r="F24">
-        <v>2.425296101062685</v>
+        <v>2.076960350844232</v>
       </c>
       <c r="G24">
-        <v>0.8073255740206662</v>
+        <v>0.5891163478444241</v>
       </c>
       <c r="H24">
-        <v>0.8699928380598578</v>
+        <v>0.4140973549150715</v>
       </c>
       <c r="I24">
-        <v>0.6942640182737492</v>
+        <v>0.3576403254649065</v>
       </c>
       <c r="J24">
-        <v>0.05991518832571474</v>
+        <v>0.02478350685709874</v>
       </c>
       <c r="K24">
-        <v>0.4417631470748518</v>
+        <v>1.323550936708955</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4790280033465706</v>
+        <v>0.8766632500654978</v>
       </c>
       <c r="N24">
-        <v>1.699240705574642</v>
+        <v>0.7013272101047452</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3466702736020295</v>
+        <v>0.9663156059153266</v>
       </c>
       <c r="C25">
-        <v>0.05239976291805704</v>
+        <v>0.1688010792257302</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4279681185829816</v>
+        <v>0.4147926942640581</v>
       </c>
       <c r="F25">
-        <v>2.384218919261585</v>
+        <v>1.808222403421212</v>
       </c>
       <c r="G25">
-        <v>0.8061697004587103</v>
+        <v>0.5413165837038179</v>
       </c>
       <c r="H25">
-        <v>0.8769320978285293</v>
+        <v>0.4045659300892908</v>
       </c>
       <c r="I25">
-        <v>0.7011672590320011</v>
+        <v>0.3516870369686629</v>
       </c>
       <c r="J25">
-        <v>0.06085396643927465</v>
+        <v>0.02704863577891548</v>
       </c>
       <c r="K25">
-        <v>0.3722997801232566</v>
+        <v>1.079220569260571</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4394064287587582</v>
+        <v>0.7182734171945668</v>
       </c>
       <c r="N25">
-        <v>1.732228884512683</v>
+        <v>0.7817678072760792</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.807515183129766</v>
+        <v>3.464892803823659</v>
       </c>
       <c r="C2">
-        <v>0.1407376848509614</v>
+        <v>1.098357544026271</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3568792855821741</v>
+        <v>0.9073432495940068</v>
       </c>
       <c r="F2">
-        <v>1.621375659616319</v>
+        <v>2.25179239489907</v>
       </c>
       <c r="G2">
-        <v>0.51101968080566</v>
+        <v>0.4099751253948227</v>
       </c>
       <c r="H2">
-        <v>0.4003072975081921</v>
+        <v>0.00137273734083565</v>
       </c>
       <c r="I2">
-        <v>0.3501994248992126</v>
+        <v>0.003357320332688651</v>
       </c>
       <c r="J2">
-        <v>0.02882519724908783</v>
+        <v>0.3089704309410166</v>
       </c>
       <c r="K2">
-        <v>0.901373927207004</v>
+        <v>0.1801575915437468</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05273043615667206</v>
       </c>
       <c r="M2">
-        <v>0.6038451993470488</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8454184968794465</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7006034418670879</v>
+        <v>3.016871491463064</v>
       </c>
       <c r="C3">
-        <v>0.1219232597034363</v>
+        <v>0.9585112486954017</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3184608511944376</v>
+        <v>0.798392527209856</v>
       </c>
       <c r="F3">
-        <v>1.500613008197348</v>
+        <v>2.029090790808539</v>
       </c>
       <c r="G3">
-        <v>0.4931486674480539</v>
+        <v>0.3823953347654765</v>
       </c>
       <c r="H3">
-        <v>0.3989674614440588</v>
+        <v>0.0002991492647403948</v>
       </c>
       <c r="I3">
-        <v>0.3508073322298237</v>
+        <v>0.001727085771316972</v>
       </c>
       <c r="J3">
-        <v>0.0300940758606385</v>
+        <v>0.3034338763410176</v>
       </c>
       <c r="K3">
-        <v>0.7817394875351056</v>
+        <v>0.1905780746702792</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04792566653591024</v>
       </c>
       <c r="M3">
-        <v>0.5273606339826031</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8911312974463552</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6352149730386429</v>
+        <v>2.741772437339307</v>
       </c>
       <c r="C4">
-        <v>0.110446688621451</v>
+        <v>0.8732749465140159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2952252687637866</v>
+        <v>0.7318028608853808</v>
       </c>
       <c r="F4">
-        <v>1.429051251360519</v>
+        <v>1.893345860684036</v>
       </c>
       <c r="G4">
-        <v>0.4833688075598417</v>
+        <v>0.3663183981527993</v>
       </c>
       <c r="H4">
-        <v>0.398854299438824</v>
+        <v>2.267285744839143E-05</v>
       </c>
       <c r="I4">
-        <v>0.351919685303983</v>
+        <v>0.001049549334298572</v>
       </c>
       <c r="J4">
-        <v>0.03090426994180895</v>
+        <v>0.3005594073989357</v>
       </c>
       <c r="K4">
-        <v>0.7086083361732278</v>
+        <v>0.1975132166681437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04495467398946928</v>
       </c>
       <c r="M4">
-        <v>0.4808325432264837</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9204138720776385</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6086203003711717</v>
+        <v>2.629605255057754</v>
       </c>
       <c r="C5">
-        <v>0.1057854544769583</v>
+        <v>0.839859262615164</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2858378287763799</v>
+        <v>0.7054793226428018</v>
       </c>
       <c r="F5">
-        <v>1.400497512612318</v>
+        <v>1.837038586197068</v>
       </c>
       <c r="G5">
-        <v>0.4796667271079258</v>
+        <v>0.3587960849101179</v>
       </c>
       <c r="H5">
-        <v>0.3989791645006591</v>
+        <v>2.119346489415364E-07</v>
       </c>
       <c r="I5">
-        <v>0.3525506967282013</v>
+        <v>0.0009091412228405815</v>
       </c>
       <c r="J5">
-        <v>0.03124211906264063</v>
+        <v>0.2988981148580265</v>
       </c>
       <c r="K5">
-        <v>0.6788727943864359</v>
+        <v>0.199967172862106</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04365733481082046</v>
       </c>
       <c r="M5">
-        <v>0.4619686082939651</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9326442188506263</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6042070391011123</v>
+        <v>2.610942594760843</v>
       </c>
       <c r="C6">
-        <v>0.1050123033881789</v>
+        <v>0.8357652774144526</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2842837436533472</v>
+        <v>0.7020277151701748</v>
       </c>
       <c r="F6">
-        <v>1.39579173182743</v>
+        <v>1.826227972946128</v>
       </c>
       <c r="G6">
-        <v>0.4790686380965781</v>
+        <v>0.3561356235643203</v>
       </c>
       <c r="H6">
-        <v>0.3990100152885887</v>
+        <v>1.811853099997762E-06</v>
       </c>
       <c r="I6">
-        <v>0.3526659796800899</v>
+        <v>0.00097187482617489</v>
       </c>
       <c r="J6">
-        <v>0.03129867931030961</v>
+        <v>0.29788170650734</v>
       </c>
       <c r="K6">
-        <v>0.6739387746656575</v>
+        <v>0.1997756642646689</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04334370600819781</v>
       </c>
       <c r="M6">
-        <v>0.4588417532153599</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9346927989055605</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.634856115022103</v>
+        <v>2.740163678854628</v>
       </c>
       <c r="C7">
-        <v>0.1103837669739107</v>
+        <v>0.8767860525584013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2950983472735942</v>
+        <v>0.7339529803280271</v>
       </c>
       <c r="F7">
-        <v>1.428663757000862</v>
+        <v>1.888559294168275</v>
       </c>
       <c r="G7">
-        <v>0.4833177543946334</v>
+        <v>0.362326143311833</v>
       </c>
       <c r="H7">
-        <v>0.3988553006506663</v>
+        <v>2.170451351801717E-05</v>
       </c>
       <c r="I7">
-        <v>0.3519274862068755</v>
+        <v>0.001254292169369009</v>
       </c>
       <c r="J7">
-        <v>0.03090879533111823</v>
+        <v>0.2984949229290379</v>
       </c>
       <c r="K7">
-        <v>0.7082070651344878</v>
+        <v>0.1958916180697994</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04466893494669577</v>
       </c>
       <c r="M7">
-        <v>0.4805777622242289</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9205776206490999</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7705910546026189</v>
+        <v>3.31026220661289</v>
       </c>
       <c r="C8">
-        <v>0.1342326478765727</v>
+        <v>1.055292217601476</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3435544954053071</v>
+        <v>0.873042940318399</v>
       </c>
       <c r="F8">
-        <v>1.579173558113993</v>
+        <v>2.169431496748373</v>
       </c>
       <c r="G8">
-        <v>0.5045998075156319</v>
+        <v>0.3951232577383763</v>
       </c>
       <c r="H8">
-        <v>0.3996934649593271</v>
+        <v>0.0009169497412808703</v>
       </c>
       <c r="I8">
-        <v>0.3502506026442838</v>
+        <v>0.002964870601843472</v>
       </c>
       <c r="J8">
-        <v>0.02925617134183667</v>
+        <v>0.3042545728692971</v>
       </c>
       <c r="K8">
-        <v>0.8600467787012178</v>
+        <v>0.1814705247816253</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05071762513254185</v>
       </c>
       <c r="M8">
-        <v>0.5773755733103982</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8609232153120807</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03941675572861</v>
+        <v>4.429880735812503</v>
       </c>
       <c r="C9">
-        <v>0.1817678797020079</v>
+        <v>1.404132935633697</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4417536757459786</v>
+        <v>1.144299446829365</v>
       </c>
       <c r="F9">
-        <v>1.896892377249102</v>
+        <v>2.737121606851616</v>
       </c>
       <c r="G9">
-        <v>0.5566018417909504</v>
+        <v>0.4742235948803994</v>
       </c>
       <c r="H9">
-        <v>0.4073233721616987</v>
+        <v>0.006002136740272945</v>
       </c>
       <c r="I9">
-        <v>0.3532158669165</v>
+        <v>0.008896639658981798</v>
       </c>
       <c r="J9">
-        <v>0.026268313036514</v>
+        <v>0.3238096569839968</v>
       </c>
       <c r="K9">
-        <v>1.161150308146063</v>
+        <v>0.1607707342967615</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06296580751302372</v>
       </c>
       <c r="M9">
-        <v>0.7712437287219842</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7539585629967345</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.239478227993516</v>
+        <v>5.254940262608102</v>
       </c>
       <c r="C10">
-        <v>0.2174144603612689</v>
+        <v>1.66251293966468</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.516398314785846</v>
+        <v>1.309490529142039</v>
       </c>
       <c r="F10">
-        <v>2.147138397779173</v>
+        <v>3.09510885568983</v>
       </c>
       <c r="G10">
-        <v>0.602260505673982</v>
+        <v>0.5249368110557384</v>
       </c>
       <c r="H10">
-        <v>0.417109025967747</v>
+        <v>0.01190170813771374</v>
       </c>
       <c r="I10">
-        <v>0.3597840293998047</v>
+        <v>0.01544523138454235</v>
       </c>
       <c r="J10">
-        <v>0.02423638599620892</v>
+        <v>0.3348072835036078</v>
       </c>
       <c r="K10">
-        <v>1.385574453882384</v>
+        <v>0.1447365116654034</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06769787358435408</v>
       </c>
       <c r="M10">
-        <v>0.9170620467736512</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6820360832688017</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.331273046897451</v>
+        <v>5.624319633155721</v>
       </c>
       <c r="C11">
-        <v>0.233849843602485</v>
+        <v>1.74362078904494</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.551034405370757</v>
+        <v>1.076200224904937</v>
       </c>
       <c r="F11">
-        <v>2.265372154245583</v>
+        <v>2.70284573286915</v>
       </c>
       <c r="G11">
-        <v>0.6249370682826481</v>
+        <v>0.4457039667118892</v>
       </c>
       <c r="H11">
-        <v>0.4225961499154778</v>
+        <v>0.02985593752773141</v>
       </c>
       <c r="I11">
-        <v>0.3638637602121122</v>
+        <v>0.0182359569694599</v>
       </c>
       <c r="J11">
-        <v>0.02334964238787141</v>
+        <v>0.2885264050439247</v>
       </c>
       <c r="K11">
-        <v>1.488647711556808</v>
+        <v>0.1091228147254224</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04294714099928676</v>
       </c>
       <c r="M11">
-        <v>0.9843548430574458</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.650897924140315</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.366166500393973</v>
+        <v>5.761581439218048</v>
       </c>
       <c r="C12">
-        <v>0.2401106692541077</v>
+        <v>1.74984920533899</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5642601980505901</v>
+        <v>0.8645537972059003</v>
       </c>
       <c r="F12">
-        <v>2.310842961865603</v>
+        <v>2.326712825885991</v>
       </c>
       <c r="G12">
-        <v>0.6338241663913493</v>
+        <v>0.3785192801753539</v>
       </c>
       <c r="H12">
-        <v>0.4248344816142833</v>
+        <v>0.06730469307342446</v>
       </c>
       <c r="I12">
-        <v>0.3655782023279457</v>
+        <v>0.01876033535317845</v>
       </c>
       <c r="J12">
-        <v>0.02301946445693659</v>
+        <v>0.2522088293350606</v>
       </c>
       <c r="K12">
-        <v>1.527845112096827</v>
+        <v>0.08841174925953688</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03435359355263046</v>
       </c>
       <c r="M12">
-        <v>1.009994686002379</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6393462291914496</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.358645335499062</v>
+        <v>5.726449975645608</v>
       </c>
       <c r="C13">
-        <v>0.2387605450762038</v>
+        <v>1.705084880840047</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5614066975293497</v>
+        <v>0.6623876969666824</v>
       </c>
       <c r="F13">
-        <v>2.301017843245361</v>
+        <v>1.937434121373215</v>
       </c>
       <c r="G13">
-        <v>0.6318963954023218</v>
+        <v>0.3105508925393679</v>
       </c>
       <c r="H13">
-        <v>0.4243450855754958</v>
+        <v>0.1213155696002559</v>
       </c>
       <c r="I13">
-        <v>0.3652012163354073</v>
+        <v>0.01777501346827659</v>
       </c>
       <c r="J13">
-        <v>0.02309032108043318</v>
+        <v>0.2181833448002521</v>
       </c>
       <c r="K13">
-        <v>1.519395462744171</v>
+        <v>0.07511921383258624</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03720441060972313</v>
       </c>
       <c r="M13">
-        <v>1.004465352125827</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6418232255614811</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.334140973121151</v>
+        <v>5.623831161227315</v>
       </c>
       <c r="C14">
-        <v>0.2343641485201431</v>
+        <v>1.652167650914237</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5521202246932404</v>
+        <v>0.5301007578671602</v>
       </c>
       <c r="F14">
-        <v>2.269098672658458</v>
+        <v>1.664219548753309</v>
       </c>
       <c r="G14">
-        <v>0.6256620477532095</v>
+        <v>0.2629028090577989</v>
       </c>
       <c r="H14">
-        <v>0.4227770130990365</v>
+        <v>0.1693291953975375</v>
       </c>
       <c r="I14">
-        <v>0.3640013353690037</v>
+        <v>0.01651865007076925</v>
       </c>
       <c r="J14">
-        <v>0.02332236471901705</v>
+        <v>0.1954604846010781</v>
       </c>
       <c r="K14">
-        <v>1.491869034169412</v>
+        <v>0.06946334288967027</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04603252114261736</v>
       </c>
       <c r="M14">
-        <v>0.9864609734881924</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6499426812885609</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.319149244193085</v>
+        <v>5.562068084461089</v>
       </c>
       <c r="C15">
-        <v>0.2316762328210302</v>
+        <v>1.630249400709999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5464466748076688</v>
+        <v>0.4976968517481879</v>
       </c>
       <c r="F15">
-        <v>2.249640247796307</v>
+        <v>1.591345426387591</v>
       </c>
       <c r="G15">
-        <v>0.621883198128387</v>
+        <v>0.2496197233370552</v>
       </c>
       <c r="H15">
-        <v>0.4218377811184268</v>
+        <v>0.1813460139769347</v>
       </c>
       <c r="I15">
-        <v>0.3632888408490729</v>
+        <v>0.01600079277222566</v>
       </c>
       <c r="J15">
-        <v>0.02346523551197288</v>
+        <v>0.1896483103445874</v>
       </c>
       <c r="K15">
-        <v>1.475030658936959</v>
+        <v>0.06897683888544126</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04898370382992567</v>
       </c>
       <c r="M15">
-        <v>0.9754538942379583</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6549476791437669</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.233496686288618</v>
+        <v>5.212470847277359</v>
       </c>
       <c r="C16">
-        <v>0.2163452496020994</v>
+        <v>1.53115553508394</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5141494563882958</v>
+        <v>0.4754077536302646</v>
       </c>
       <c r="F16">
-        <v>2.139505529458248</v>
+        <v>1.526171789148563</v>
       </c>
       <c r="G16">
-        <v>0.6008190619053835</v>
+        <v>0.2400855463604472</v>
       </c>
       <c r="H16">
-        <v>0.4167722357242809</v>
+        <v>0.1666955305027784</v>
       </c>
       <c r="I16">
-        <v>0.3595404293666959</v>
+        <v>0.01328420772562122</v>
       </c>
       <c r="J16">
-        <v>0.02429511052648792</v>
+        <v>0.1907383856256644</v>
       </c>
       <c r="K16">
-        <v>1.37886018762191</v>
+        <v>0.07703475300664309</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04666387630417645</v>
       </c>
       <c r="M16">
-        <v>0.9126852448994498</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6841038689516346</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.181166453284021</v>
+        <v>4.99961129056129</v>
       </c>
       <c r="C17">
-        <v>0.207000212114508</v>
+        <v>1.483523185733532</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4945185812549298</v>
+        <v>0.5255391898878159</v>
       </c>
       <c r="F17">
-        <v>2.073112684492742</v>
+        <v>1.6169127126022</v>
       </c>
       <c r="G17">
-        <v>0.5884028970271231</v>
+        <v>0.2574341478643376</v>
       </c>
       <c r="H17">
-        <v>0.413937868287789</v>
+        <v>0.1281204980763846</v>
       </c>
       <c r="I17">
-        <v>0.3575291636227078</v>
+        <v>0.01193901750032111</v>
       </c>
       <c r="J17">
-        <v>0.02481398203597784</v>
+        <v>0.2033961381633134</v>
       </c>
       <c r="K17">
-        <v>1.320131042492989</v>
+        <v>0.08598445307482905</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03898898703640796</v>
       </c>
       <c r="M17">
-        <v>0.8744378428636495</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.702403439106897</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.151140183706616</v>
+        <v>4.879355970790527</v>
       </c>
       <c r="C18">
-        <v>0.2016455030556159</v>
+        <v>1.470733401626205</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4832906322821202</v>
+        <v>0.6546143397567405</v>
       </c>
       <c r="F18">
-        <v>2.035334743248498</v>
+        <v>1.867964574986914</v>
       </c>
       <c r="G18">
-        <v>0.5814392045453758</v>
+        <v>0.3045168520830686</v>
       </c>
       <c r="H18">
-        <v>0.4124043447298504</v>
+        <v>0.07545008188863989</v>
       </c>
       <c r="I18">
-        <v>0.356474300721807</v>
+        <v>0.01125869669055923</v>
       </c>
       <c r="J18">
-        <v>0.02511594802890382</v>
+        <v>0.2297199179841556</v>
       </c>
       <c r="K18">
-        <v>1.286442393858067</v>
+        <v>0.09902730401750759</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03193326234821559</v>
       </c>
       <c r="M18">
-        <v>0.8525279802846057</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7130767574517893</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140985714054892</v>
+        <v>4.841744877984127</v>
       </c>
       <c r="C19">
-        <v>0.1998358179381938</v>
+        <v>1.494475371539352</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4794995460287623</v>
+        <v>0.8611160310865387</v>
       </c>
       <c r="F19">
-        <v>2.022612177676862</v>
+        <v>2.246724783737804</v>
       </c>
       <c r="G19">
-        <v>0.5791111923780932</v>
+        <v>0.3707241256326341</v>
       </c>
       <c r="H19">
-        <v>0.411901395795951</v>
+        <v>0.0314417238601834</v>
       </c>
       <c r="I19">
-        <v>0.3561342883834868</v>
+        <v>0.01161577041197326</v>
       </c>
       <c r="J19">
-        <v>0.02521878786920606</v>
+        <v>0.2640943248417926</v>
       </c>
       <c r="K19">
-        <v>1.275050872855672</v>
+        <v>0.115615467370592</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03513424652648567</v>
       </c>
       <c r="M19">
-        <v>0.8451243979677514</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7167155949706867</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.18672943406645</v>
+        <v>5.037585281664803</v>
       </c>
       <c r="C20">
-        <v>0.2079928668317024</v>
+        <v>1.606876694242317</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4966016949069072</v>
+        <v>1.272284803875891</v>
       </c>
       <c r="F20">
-        <v>2.080137475507868</v>
+        <v>2.985232383502421</v>
       </c>
       <c r="G20">
-        <v>0.58970604084152</v>
+        <v>0.4986673607681098</v>
       </c>
       <c r="H20">
-        <v>0.4142294995306202</v>
+        <v>0.01013339582315576</v>
       </c>
       <c r="I20">
-        <v>0.3577326256979489</v>
+        <v>0.01417071093666156</v>
       </c>
       <c r="J20">
-        <v>0.02475838102345262</v>
+        <v>0.3251940364715296</v>
       </c>
       <c r="K20">
-        <v>1.326373290353473</v>
+        <v>0.1437296434915218</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06543977944079771</v>
       </c>
       <c r="M20">
-        <v>0.878499992987976</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7004400252378495</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.341334730391964</v>
+        <v>5.673745750450678</v>
       </c>
       <c r="C21">
-        <v>0.2356544233486062</v>
+        <v>1.812340659395034</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5548448039394245</v>
+        <v>1.457403337575187</v>
       </c>
       <c r="F21">
-        <v>2.278454602214964</v>
+        <v>3.367418060987745</v>
       </c>
       <c r="G21">
-        <v>0.6274848691769819</v>
+        <v>0.5607589876059507</v>
       </c>
       <c r="H21">
-        <v>0.423233141967458</v>
+        <v>0.01601779203316334</v>
       </c>
       <c r="I21">
-        <v>0.3643490635935365</v>
+        <v>0.02007998199885996</v>
       </c>
       <c r="J21">
-        <v>0.02325405381800616</v>
+        <v>0.3453781558302609</v>
       </c>
       <c r="K21">
-        <v>1.499949507444313</v>
+        <v>0.139148688347376</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07568778929600484</v>
       </c>
       <c r="M21">
-        <v>0.9917448567597447</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6475511919114432</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.443162311280759</v>
+        <v>6.090741049983649</v>
       </c>
       <c r="C22">
-        <v>0.2539520336276411</v>
+        <v>1.94013583479682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5935567377848514</v>
+        <v>1.556429466507566</v>
       </c>
       <c r="F22">
-        <v>2.412170945122909</v>
+        <v>3.591664854115919</v>
       </c>
       <c r="G22">
-        <v>0.6539375229664444</v>
+        <v>0.6020838358323886</v>
       </c>
       <c r="H22">
-        <v>0.4300589709068419</v>
+        <v>0.02031354446942024</v>
       </c>
       <c r="I22">
-        <v>0.3696680125470664</v>
+        <v>0.02420246502219126</v>
       </c>
       <c r="J22">
-        <v>0.02230371219366045</v>
+        <v>0.3590637775797916</v>
       </c>
       <c r="K22">
-        <v>1.61437089904274</v>
+        <v>0.1372417407586788</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08069575196018874</v>
       </c>
       <c r="M22">
-        <v>1.066685359664866</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6143886616808931</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.388736327933572</v>
+        <v>5.868176638782472</v>
       </c>
       <c r="C23">
-        <v>0.2441642446166412</v>
+        <v>1.866909302085617</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5728320104985087</v>
+        <v>1.500460019270704</v>
       </c>
       <c r="F23">
-        <v>2.340405139389247</v>
+        <v>3.476540041878252</v>
       </c>
       <c r="G23">
-        <v>0.6396489286657498</v>
+        <v>0.5844207639809298</v>
       </c>
       <c r="H23">
-        <v>0.426325691479704</v>
+        <v>0.01797145742117778</v>
       </c>
       <c r="I23">
-        <v>0.3667337720516954</v>
+        <v>0.02171479675414822</v>
       </c>
       <c r="J23">
-        <v>0.02280785118159789</v>
+        <v>0.3540308951536701</v>
       </c>
       <c r="K23">
-        <v>1.553203765211606</v>
+        <v>0.1399986077349951</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07835211205730275</v>
       </c>
       <c r="M23">
-        <v>1.02659635124126</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6319553333350516</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.184214227912122</v>
+        <v>5.028039702218166</v>
       </c>
       <c r="C24">
-        <v>0.2075440323616959</v>
+        <v>1.600064479332332</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4956597391499642</v>
+        <v>1.294799599369924</v>
       </c>
       <c r="F24">
-        <v>2.076960350844232</v>
+        <v>3.038116778998443</v>
       </c>
       <c r="G24">
-        <v>0.5891163478444241</v>
+        <v>0.5138798778609299</v>
       </c>
       <c r="H24">
-        <v>0.4140973549150715</v>
+        <v>0.01028522118429648</v>
       </c>
       <c r="I24">
-        <v>0.3576403254649065</v>
+        <v>0.01377773437779162</v>
       </c>
       <c r="J24">
-        <v>0.02478350685709874</v>
+        <v>0.3331112826945741</v>
       </c>
       <c r="K24">
-        <v>1.323550936708955</v>
+        <v>0.1493273680835294</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06903643252922009</v>
       </c>
       <c r="M24">
-        <v>0.8766632500654978</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7013272101047452</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9663156059153266</v>
+        <v>4.126395967926726</v>
       </c>
       <c r="C25">
-        <v>0.1688010792257302</v>
+        <v>1.316318467728081</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4147926942640581</v>
+        <v>1.075109366201872</v>
       </c>
       <c r="F25">
-        <v>1.808222403421212</v>
+        <v>2.574919921898413</v>
       </c>
       <c r="G25">
-        <v>0.5413165837038179</v>
+        <v>0.4448236089230591</v>
       </c>
       <c r="H25">
-        <v>0.4045659300892908</v>
+        <v>0.004221477344033997</v>
       </c>
       <c r="I25">
-        <v>0.3516870369686629</v>
+        <v>0.007278780745554769</v>
       </c>
       <c r="J25">
-        <v>0.02704863577891548</v>
+        <v>0.3143079839256018</v>
       </c>
       <c r="K25">
-        <v>1.079220569260571</v>
+        <v>0.1629294779865056</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05915535120606563</v>
       </c>
       <c r="M25">
-        <v>0.7182734171945668</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7817678072760792</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.464892803823659</v>
+        <v>3.464324443496821</v>
       </c>
       <c r="C2">
-        <v>1.098357544026271</v>
+        <v>1.130997427152579</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9073432495940068</v>
+        <v>0.9311502227965889</v>
       </c>
       <c r="F2">
-        <v>2.25179239489907</v>
+        <v>2.211656508538582</v>
       </c>
       <c r="G2">
-        <v>0.4099751253948227</v>
+        <v>0.3551237691691824</v>
       </c>
       <c r="H2">
-        <v>0.00137273734083565</v>
+        <v>0.001293084774868891</v>
       </c>
       <c r="I2">
-        <v>0.003357320332688651</v>
+        <v>0.003387134117274648</v>
       </c>
       <c r="J2">
-        <v>0.3089704309410166</v>
+        <v>0.3341360547463808</v>
       </c>
       <c r="K2">
-        <v>0.1801575915437468</v>
+        <v>0.164169666864824</v>
       </c>
       <c r="L2">
-        <v>0.05273043615667206</v>
+        <v>0.1094870958221268</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02869407512581112</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05020597873780375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.016871491463064</v>
+        <v>3.018929420976747</v>
       </c>
       <c r="C3">
-        <v>0.9585112486954017</v>
+        <v>0.9806595600607579</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.798392527209856</v>
+        <v>0.8168824388389169</v>
       </c>
       <c r="F3">
-        <v>2.029090790808539</v>
+        <v>1.999329949520373</v>
       </c>
       <c r="G3">
-        <v>0.3823953347654765</v>
+        <v>0.3355575287771444</v>
       </c>
       <c r="H3">
-        <v>0.0002991492647403948</v>
+        <v>0.0002868818877423962</v>
       </c>
       <c r="I3">
-        <v>0.001727085771316972</v>
+        <v>0.001957304262789616</v>
       </c>
       <c r="J3">
-        <v>0.3034338763410176</v>
+        <v>0.3297245383336218</v>
       </c>
       <c r="K3">
-        <v>0.1905780746702792</v>
+        <v>0.1759726677476952</v>
       </c>
       <c r="L3">
-        <v>0.04792566653591024</v>
+        <v>0.1164440615655487</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03110682365818107</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04597977739092585</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.741772437339307</v>
+        <v>2.745179096090055</v>
       </c>
       <c r="C4">
-        <v>0.8732749465140159</v>
+        <v>0.8891373928663313</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7318028608853808</v>
+        <v>0.7471147062075971</v>
       </c>
       <c r="F4">
-        <v>1.893345860684036</v>
+        <v>1.869695949282388</v>
       </c>
       <c r="G4">
-        <v>0.3663183981527993</v>
+        <v>0.3242990214182697</v>
       </c>
       <c r="H4">
-        <v>2.267285744839143E-05</v>
+        <v>2.36200054839486E-05</v>
       </c>
       <c r="I4">
-        <v>0.001049549334298572</v>
+        <v>0.001325764220602821</v>
       </c>
       <c r="J4">
-        <v>0.3005594073989357</v>
+        <v>0.3271504917506434</v>
       </c>
       <c r="K4">
-        <v>0.1975132166681437</v>
+        <v>0.1836287631182731</v>
       </c>
       <c r="L4">
-        <v>0.04495467398946928</v>
+        <v>0.1209398752938746</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0331976303570638</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04335260109534289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.629605255057754</v>
+        <v>2.633503679171952</v>
       </c>
       <c r="C5">
-        <v>0.839859262615164</v>
+        <v>0.8530975731427475</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7054793226428018</v>
+        <v>0.7194462657374459</v>
       </c>
       <c r="F5">
-        <v>1.837038586197068</v>
+        <v>1.815950447305383</v>
       </c>
       <c r="G5">
-        <v>0.3587960849101179</v>
+        <v>0.3188841398856326</v>
       </c>
       <c r="H5">
-        <v>2.119346489415364E-07</v>
+        <v>2.991244540950788E-08</v>
       </c>
       <c r="I5">
-        <v>0.0009091412228405815</v>
+        <v>0.001198881965018828</v>
       </c>
       <c r="J5">
-        <v>0.2988981148580265</v>
+        <v>0.3255859060828499</v>
       </c>
       <c r="K5">
-        <v>0.199967172862106</v>
+        <v>0.1864378153625879</v>
       </c>
       <c r="L5">
-        <v>0.04365733481082046</v>
+        <v>0.1225948318036227</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03412284452277348</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04220331539855948</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.610942594760843</v>
+        <v>2.614919666381013</v>
       </c>
       <c r="C6">
-        <v>0.8357652774144526</v>
+        <v>0.8484438652178312</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7020277151701748</v>
+        <v>0.7156839066939398</v>
       </c>
       <c r="F6">
-        <v>1.826227972946128</v>
+        <v>1.805724518972369</v>
       </c>
       <c r="G6">
-        <v>0.3561356235643203</v>
+        <v>0.3167790158448511</v>
       </c>
       <c r="H6">
-        <v>1.811853099997762E-06</v>
+        <v>1.052867726780704E-06</v>
       </c>
       <c r="I6">
-        <v>0.00097187482617489</v>
+        <v>0.001279655999891993</v>
       </c>
       <c r="J6">
-        <v>0.29788170650734</v>
+        <v>0.3246622049884849</v>
       </c>
       <c r="K6">
-        <v>0.1997756642646689</v>
+        <v>0.1864154018617796</v>
       </c>
       <c r="L6">
-        <v>0.04334370600819781</v>
+        <v>0.1225905525914559</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03419359780230469</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04192713464128062</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.740163678854628</v>
+        <v>2.743521388061765</v>
       </c>
       <c r="C7">
-        <v>0.8767860525584013</v>
+        <v>0.8909655988182976</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7339529803280271</v>
+        <v>0.7503673819252441</v>
       </c>
       <c r="F7">
-        <v>1.888559294168275</v>
+        <v>1.863214475520238</v>
       </c>
       <c r="G7">
-        <v>0.362326143311833</v>
+        <v>0.3227974139596199</v>
       </c>
       <c r="H7">
-        <v>2.170451351801717E-05</v>
+        <v>2.23972579926901E-05</v>
       </c>
       <c r="I7">
-        <v>0.001254292169369009</v>
+        <v>0.001571171643124813</v>
       </c>
       <c r="J7">
-        <v>0.2984949229290379</v>
+        <v>0.3201626108350126</v>
       </c>
       <c r="K7">
-        <v>0.1958916180697994</v>
+        <v>0.181751901521972</v>
       </c>
       <c r="L7">
-        <v>0.04466893494669577</v>
+        <v>0.1198969303654547</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03282408841379247</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04296677914899405</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.31026220661289</v>
+        <v>3.310462459033204</v>
       </c>
       <c r="C8">
-        <v>1.055292217601476</v>
+        <v>1.079441324636321</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.873042940318399</v>
+        <v>0.8992636996395333</v>
       </c>
       <c r="F8">
-        <v>2.169431496748373</v>
+        <v>2.126288145897632</v>
       </c>
       <c r="G8">
-        <v>0.3951232577383763</v>
+        <v>0.3501914818689897</v>
       </c>
       <c r="H8">
-        <v>0.0009169497412808703</v>
+        <v>0.0008615692611553261</v>
       </c>
       <c r="I8">
-        <v>0.002964870601843472</v>
+        <v>0.003119693702059223</v>
       </c>
       <c r="J8">
-        <v>0.3042545728692971</v>
+        <v>0.313476482539869</v>
       </c>
       <c r="K8">
-        <v>0.1814705247816253</v>
+        <v>0.1646330669216276</v>
       </c>
       <c r="L8">
-        <v>0.05071762513254185</v>
+        <v>0.1100816283940684</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02848460880514647</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04798719162577214</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.429880735812503</v>
+        <v>4.42158308601438</v>
       </c>
       <c r="C9">
-        <v>1.404132935633697</v>
+        <v>1.45432441047825</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.144299446829365</v>
+        <v>1.185852861176301</v>
       </c>
       <c r="F9">
-        <v>2.737121606851616</v>
+        <v>2.663909663282482</v>
       </c>
       <c r="G9">
-        <v>0.4742235948803994</v>
+        <v>0.4098839395128806</v>
       </c>
       <c r="H9">
-        <v>0.006002136740272945</v>
+        <v>0.005583976464812124</v>
       </c>
       <c r="I9">
-        <v>0.008896639658981798</v>
+        <v>0.00797712541210327</v>
       </c>
       <c r="J9">
-        <v>0.3238096569839968</v>
+        <v>0.3229895425790659</v>
       </c>
       <c r="K9">
-        <v>0.1607707342967615</v>
+        <v>0.1389550794252745</v>
       </c>
       <c r="L9">
-        <v>0.06296580751302372</v>
+        <v>0.09491346392469957</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0260615284189214</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.05854449491484104</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.254940262608102</v>
+        <v>5.237989110054627</v>
       </c>
       <c r="C10">
-        <v>1.66251293966468</v>
+        <v>1.722305164646059</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.309490529142039</v>
+        <v>1.368700356392367</v>
       </c>
       <c r="F10">
-        <v>3.09510885568983</v>
+        <v>2.988607173613218</v>
       </c>
       <c r="G10">
-        <v>0.5249368110557384</v>
+        <v>0.4599520159957535</v>
       </c>
       <c r="H10">
-        <v>0.01190170813771374</v>
+        <v>0.01101432609840458</v>
       </c>
       <c r="I10">
-        <v>0.01544523138454235</v>
+        <v>0.01318272393578468</v>
       </c>
       <c r="J10">
-        <v>0.3348072835036078</v>
+        <v>0.2984334990180173</v>
       </c>
       <c r="K10">
-        <v>0.1447365116654034</v>
+        <v>0.1172456108179141</v>
       </c>
       <c r="L10">
-        <v>0.06769787358435408</v>
+        <v>0.08302819571126996</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02540664254863501</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06167751385901354</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.624319633155721</v>
+        <v>5.603322798239958</v>
       </c>
       <c r="C11">
-        <v>1.74362078904494</v>
+        <v>1.776421664999532</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.076200224904937</v>
+        <v>1.137619494765616</v>
       </c>
       <c r="F11">
-        <v>2.70284573286915</v>
+        <v>2.587891143509893</v>
       </c>
       <c r="G11">
-        <v>0.4457039667118892</v>
+        <v>0.4188810035569048</v>
       </c>
       <c r="H11">
-        <v>0.02985593752773141</v>
+        <v>0.02886806554280952</v>
       </c>
       <c r="I11">
-        <v>0.0182359569694599</v>
+        <v>0.01543054635549446</v>
       </c>
       <c r="J11">
-        <v>0.2885264050439247</v>
+        <v>0.2147648317622242</v>
       </c>
       <c r="K11">
-        <v>0.1091228147254224</v>
+        <v>0.08756393677998275</v>
       </c>
       <c r="L11">
-        <v>0.04294714099928676</v>
+        <v>0.07156453271439123</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01630055298689825</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.03989320898518223</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.761581439218048</v>
+        <v>5.739373945606474</v>
       </c>
       <c r="C12">
-        <v>1.74984920533899</v>
+        <v>1.763192317706171</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8645537972059003</v>
+        <v>0.9188338975666142</v>
       </c>
       <c r="F12">
-        <v>2.326712825885991</v>
+        <v>2.219407242697145</v>
       </c>
       <c r="G12">
-        <v>0.3785192801753539</v>
+        <v>0.3731401803701289</v>
       </c>
       <c r="H12">
-        <v>0.06730469307342446</v>
+        <v>0.06634434618808172</v>
       </c>
       <c r="I12">
-        <v>0.01876033535317845</v>
+        <v>0.0157692110295331</v>
       </c>
       <c r="J12">
-        <v>0.2522088293350606</v>
+        <v>0.1748953022250177</v>
       </c>
       <c r="K12">
-        <v>0.08841174925953688</v>
+        <v>0.07380774230549392</v>
       </c>
       <c r="L12">
-        <v>0.03435359355263046</v>
+        <v>0.06704192497755024</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01102233210254422</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.03466328319227951</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.726449975645608</v>
+        <v>5.705448177907499</v>
       </c>
       <c r="C13">
-        <v>1.705084880840047</v>
+        <v>1.706810815993492</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6623876969666824</v>
+        <v>0.7011860249854749</v>
       </c>
       <c r="F13">
-        <v>1.937434121373215</v>
+        <v>1.853227765915008</v>
       </c>
       <c r="G13">
-        <v>0.3105508925393679</v>
+        <v>0.312682785697433</v>
       </c>
       <c r="H13">
-        <v>0.1213155696002559</v>
+        <v>0.1204832756662029</v>
       </c>
       <c r="I13">
-        <v>0.01777501346827659</v>
+        <v>0.01499492138370595</v>
       </c>
       <c r="J13">
-        <v>0.2181833448002521</v>
+        <v>0.1614058027797611</v>
       </c>
       <c r="K13">
-        <v>0.07511921383258624</v>
+        <v>0.06839918801345712</v>
       </c>
       <c r="L13">
-        <v>0.03720441060972313</v>
+        <v>0.0657263042011179</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.00775924390787619</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04040639414732539</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.623831161227315</v>
+        <v>5.60470412083896</v>
       </c>
       <c r="C14">
-        <v>1.652167650914237</v>
+        <v>1.649008826411034</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5301007578671602</v>
+        <v>0.5561042983697675</v>
       </c>
       <c r="F14">
-        <v>1.664219548753309</v>
+        <v>1.601105368842795</v>
       </c>
       <c r="G14">
-        <v>0.2629028090577989</v>
+        <v>0.2651178434055623</v>
       </c>
       <c r="H14">
-        <v>0.1693291953975375</v>
+        <v>0.168618351037253</v>
       </c>
       <c r="I14">
-        <v>0.01651865007076925</v>
+        <v>0.01406642432867322</v>
       </c>
       <c r="J14">
-        <v>0.1954604846010781</v>
+        <v>0.1606724576164424</v>
       </c>
       <c r="K14">
-        <v>0.06946334288967027</v>
+        <v>0.06781188542668026</v>
       </c>
       <c r="L14">
-        <v>0.04603252114261736</v>
+        <v>0.06585285324438772</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006370615500081112</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05041796367098073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.562068084461089</v>
+        <v>5.543883956051388</v>
       </c>
       <c r="C15">
-        <v>1.630249400709999</v>
+        <v>1.627121382442056</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4976968517481879</v>
+        <v>0.5195529866355599</v>
       </c>
       <c r="F15">
-        <v>1.591345426387591</v>
+        <v>1.535787212890469</v>
       </c>
       <c r="G15">
-        <v>0.2496197233370552</v>
+        <v>0.2501131001815509</v>
       </c>
       <c r="H15">
-        <v>0.1813460139769347</v>
+        <v>0.1806848359221647</v>
       </c>
       <c r="I15">
-        <v>0.01600079277222566</v>
+        <v>0.01372924696523281</v>
       </c>
       <c r="J15">
-        <v>0.1896483103445874</v>
+        <v>0.1638373680031222</v>
       </c>
       <c r="K15">
-        <v>0.06897683888544126</v>
+        <v>0.06861768861940609</v>
       </c>
       <c r="L15">
-        <v>0.04898370382992567</v>
+        <v>0.06618260671521337</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00622971778274195</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05337569987763757</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.212470847277359</v>
+        <v>5.198720082146224</v>
       </c>
       <c r="C16">
-        <v>1.53115553508394</v>
+        <v>1.538830317008035</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4754077536302646</v>
+        <v>0.4871172788746136</v>
       </c>
       <c r="F16">
-        <v>1.526171789148563</v>
+        <v>1.492067384481516</v>
       </c>
       <c r="G16">
-        <v>0.2400855463604472</v>
+        <v>0.2260949702261712</v>
       </c>
       <c r="H16">
-        <v>0.1666955305027784</v>
+        <v>0.1662315697955279</v>
       </c>
       <c r="I16">
-        <v>0.01328420772562122</v>
+        <v>0.0117375950507066</v>
       </c>
       <c r="J16">
-        <v>0.1907383856256644</v>
+        <v>0.198397773786759</v>
       </c>
       <c r="K16">
-        <v>0.07703475300664309</v>
+        <v>0.07772789690079573</v>
       </c>
       <c r="L16">
-        <v>0.04666387630417645</v>
+        <v>0.06927578588988503</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.008036573789353962</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0495413431638454</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.99961129056129</v>
+        <v>4.988074988625158</v>
       </c>
       <c r="C17">
-        <v>1.483523185733532</v>
+        <v>1.499868674803849</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5255391898878159</v>
+        <v>0.5358330442167372</v>
       </c>
       <c r="F17">
-        <v>1.6169127126022</v>
+        <v>1.587555701758745</v>
       </c>
       <c r="G17">
-        <v>0.2574341478643376</v>
+        <v>0.2338585663185171</v>
       </c>
       <c r="H17">
-        <v>0.1281204980763846</v>
+        <v>0.1277380440848646</v>
       </c>
       <c r="I17">
-        <v>0.01193901750032111</v>
+        <v>0.01074427225986341</v>
       </c>
       <c r="J17">
-        <v>0.2033961381633134</v>
+        <v>0.2248326744557261</v>
       </c>
       <c r="K17">
-        <v>0.08598445307482905</v>
+        <v>0.08564281093648329</v>
       </c>
       <c r="L17">
-        <v>0.03898898703640796</v>
+        <v>0.07221321318523088</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01008434206186593</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04091518003682637</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.879355970790527</v>
+        <v>4.86867887066893</v>
       </c>
       <c r="C18">
-        <v>1.470733401626205</v>
+        <v>1.498359927497461</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6546143397567405</v>
+        <v>0.6693479889378651</v>
       </c>
       <c r="F18">
-        <v>1.867964574986914</v>
+        <v>1.832491290767038</v>
       </c>
       <c r="G18">
-        <v>0.3045168520830686</v>
+        <v>0.2694812974357177</v>
       </c>
       <c r="H18">
-        <v>0.07545008188863989</v>
+        <v>0.07507481983833486</v>
       </c>
       <c r="I18">
-        <v>0.01125869669055923</v>
+        <v>0.01014281047384458</v>
       </c>
       <c r="J18">
-        <v>0.2297199179841556</v>
+        <v>0.253797298755849</v>
       </c>
       <c r="K18">
-        <v>0.09902730401750759</v>
+        <v>0.0953154776142906</v>
       </c>
       <c r="L18">
-        <v>0.03193326234821559</v>
+        <v>0.07604435231532003</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0131729474209159</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03287152446873343</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.841744877984127</v>
+        <v>4.830852006303189</v>
       </c>
       <c r="C19">
-        <v>1.494475371539352</v>
+        <v>1.535307077682205</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8611160310865387</v>
+        <v>0.8849975192655819</v>
       </c>
       <c r="F19">
-        <v>2.246724783737804</v>
+        <v>2.197406685019104</v>
       </c>
       <c r="G19">
-        <v>0.3707241256326341</v>
+        <v>0.3218652703951079</v>
       </c>
       <c r="H19">
-        <v>0.0314417238601834</v>
+        <v>0.03100536683110988</v>
       </c>
       <c r="I19">
-        <v>0.01161577041197326</v>
+        <v>0.01048366190675498</v>
       </c>
       <c r="J19">
-        <v>0.2640943248417926</v>
+        <v>0.2838195195298994</v>
       </c>
       <c r="K19">
-        <v>0.115615467370592</v>
+        <v>0.1063732360179426</v>
       </c>
       <c r="L19">
-        <v>0.03513424652648567</v>
+        <v>0.08045252303298689</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0171927022088818</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.03447840066518904</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.037585281664803</v>
+        <v>5.023372637031059</v>
       </c>
       <c r="C20">
-        <v>1.606876694242317</v>
+        <v>1.667961955125804</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.272284803875891</v>
+        <v>1.321030844978281</v>
       </c>
       <c r="F20">
-        <v>2.985232383502421</v>
+        <v>2.897070783994508</v>
       </c>
       <c r="G20">
-        <v>0.4986673607681098</v>
+        <v>0.4289959760197206</v>
       </c>
       <c r="H20">
-        <v>0.01013339582315576</v>
+        <v>0.009404954682243449</v>
       </c>
       <c r="I20">
-        <v>0.01417071093666156</v>
+        <v>0.01251128717019956</v>
       </c>
       <c r="J20">
-        <v>0.3251940364715296</v>
+        <v>0.3163587618852119</v>
       </c>
       <c r="K20">
-        <v>0.1437296434915218</v>
+        <v>0.1209371398800343</v>
       </c>
       <c r="L20">
-        <v>0.06543977944079771</v>
+        <v>0.08534540948602753</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02468926172680952</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06048073281261424</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.673745750450678</v>
+        <v>5.650450384398596</v>
       </c>
       <c r="C21">
-        <v>1.812340659395034</v>
+        <v>1.857679547188184</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.457403337575187</v>
+        <v>1.550785945362932</v>
       </c>
       <c r="F21">
-        <v>3.367418060987745</v>
+        <v>3.206115484946679</v>
       </c>
       <c r="G21">
-        <v>0.5607589876059507</v>
+        <v>0.52462793159782</v>
       </c>
       <c r="H21">
-        <v>0.01601779203316334</v>
+        <v>0.01471206578915008</v>
       </c>
       <c r="I21">
-        <v>0.02007998199885996</v>
+        <v>0.01690828224299601</v>
       </c>
       <c r="J21">
-        <v>0.3453781558302609</v>
+        <v>0.2277653621849396</v>
       </c>
       <c r="K21">
-        <v>0.139148688347376</v>
+        <v>0.1010988810604125</v>
       </c>
       <c r="L21">
-        <v>0.07568778929600484</v>
+        <v>0.07567375673940013</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0231805827075533</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06607154834370732</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.090741049983649</v>
+        <v>6.060847611818133</v>
       </c>
       <c r="C22">
-        <v>1.94013583479682</v>
+        <v>1.972120413104221</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.556429466507566</v>
+        <v>1.681440569602699</v>
       </c>
       <c r="F22">
-        <v>3.591664854115919</v>
+        <v>3.378872043704774</v>
       </c>
       <c r="G22">
-        <v>0.6020838358323886</v>
+        <v>0.5936583240627584</v>
       </c>
       <c r="H22">
-        <v>0.02031354446942024</v>
+        <v>0.0185655084568781</v>
       </c>
       <c r="I22">
-        <v>0.02420246502219126</v>
+        <v>0.01980424041010842</v>
       </c>
       <c r="J22">
-        <v>0.3590637775797916</v>
+        <v>0.176791000832047</v>
       </c>
       <c r="K22">
-        <v>0.1372417407586788</v>
+        <v>0.08888090559811168</v>
       </c>
       <c r="L22">
-        <v>0.08069575196018874</v>
+        <v>0.07001778471733555</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02256222444140654</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06794383958472849</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.868176638782472</v>
+        <v>5.842025958639169</v>
       </c>
       <c r="C23">
-        <v>1.866909302085617</v>
+        <v>1.910185019225764</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.500460019270704</v>
+        <v>1.60478986862644</v>
       </c>
       <c r="F23">
-        <v>3.476540041878252</v>
+        <v>3.296597111327912</v>
       </c>
       <c r="G23">
-        <v>0.5844207639809298</v>
+        <v>0.5547960482044374</v>
       </c>
       <c r="H23">
-        <v>0.01797145742117778</v>
+        <v>0.01647799569823361</v>
       </c>
       <c r="I23">
-        <v>0.02171479675414822</v>
+        <v>0.01794404805593519</v>
       </c>
       <c r="J23">
-        <v>0.3540308951536701</v>
+        <v>0.212929938311504</v>
       </c>
       <c r="K23">
-        <v>0.1399986077349951</v>
+        <v>0.09748496804719764</v>
       </c>
       <c r="L23">
-        <v>0.07835211205730275</v>
+        <v>0.0736327279559319</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02383788492571703</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06756692155825661</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.028039702218166</v>
+        <v>5.013833959547469</v>
       </c>
       <c r="C24">
-        <v>1.600064479332332</v>
+        <v>1.663272558691688</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.294799599369924</v>
+        <v>1.345091535135495</v>
       </c>
       <c r="F24">
-        <v>3.038116778998443</v>
+        <v>2.947524948693513</v>
       </c>
       <c r="G24">
-        <v>0.5138798778609299</v>
+        <v>0.4409562812414549</v>
       </c>
       <c r="H24">
-        <v>0.01028522118429648</v>
+        <v>0.00954542921655907</v>
       </c>
       <c r="I24">
-        <v>0.01377773437779162</v>
+        <v>0.01201401056232854</v>
       </c>
       <c r="J24">
-        <v>0.3331112826945741</v>
+        <v>0.3235596945895196</v>
       </c>
       <c r="K24">
-        <v>0.1493273680835294</v>
+        <v>0.1248686965198686</v>
       </c>
       <c r="L24">
-        <v>0.06903643252922009</v>
+        <v>0.0868341325461035</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02615913278518534</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06367639376199463</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.126395967926726</v>
+        <v>4.120831192677201</v>
       </c>
       <c r="C25">
-        <v>1.316318467728081</v>
+        <v>1.360677496092137</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.075109366201872</v>
+        <v>1.110044941338813</v>
       </c>
       <c r="F25">
-        <v>2.574919921898413</v>
+        <v>2.514100382170454</v>
       </c>
       <c r="G25">
-        <v>0.4448236089230591</v>
+        <v>0.3842401682451708</v>
       </c>
       <c r="H25">
-        <v>0.004221477344033997</v>
+        <v>0.003938455769334492</v>
       </c>
       <c r="I25">
-        <v>0.007278780745554769</v>
+        <v>0.006835691587678383</v>
       </c>
       <c r="J25">
-        <v>0.3143079839256018</v>
+        <v>0.3242584258710366</v>
       </c>
       <c r="K25">
-        <v>0.1629294779865056</v>
+        <v>0.1440837084107169</v>
       </c>
       <c r="L25">
-        <v>0.05915535120606563</v>
+        <v>0.09822886575868139</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02567815809705642</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05548364060827282</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
